--- a/Doc/PHD_Papers/Thesis_Paper/Stable Wireless Blockchain Consensus Protocol/测试数据/Sybil_test/最终测试数据2/300nodes/300.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Stable Wireless Blockchain Consensus Protocol/测试数据/Sybil_test/最终测试数据2/300nodes/300.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\测试数据\Sybil_test\第三次测试\300nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Stable Wireless Blockchain Consensus Protocol\测试数据\Sybil_test\最终测试数据2\300nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF557C-A7D7-4C0E-B338-5D01B8C0A8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7662974-619E-4442-A3F7-F6E57462657B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,34 +323,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.243032</c:v>
+                  <c:v>0.24276500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22517300000000001</c:v>
+                  <c:v>0.244586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24671899999999999</c:v>
+                  <c:v>0.245502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22525400000000001</c:v>
+                  <c:v>0.22579399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24590300000000001</c:v>
+                  <c:v>0.24562500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22240399999999999</c:v>
+                  <c:v>0.247337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24681400000000001</c:v>
+                  <c:v>0.248832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24771299999999999</c:v>
+                  <c:v>0.22617300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20843100000000001</c:v>
+                  <c:v>0.228599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25824599999999998</c:v>
+                  <c:v>0.21484500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,34 +435,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.246638</c:v>
+                  <c:v>0.24546599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25771500000000003</c:v>
+                  <c:v>0.25193900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25093500000000002</c:v>
+                  <c:v>0.249972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25986300000000001</c:v>
+                  <c:v>0.25517600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25488300000000003</c:v>
+                  <c:v>0.25034899999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.250614</c:v>
+                  <c:v>0.259961</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.252944</c:v>
+                  <c:v>0.25811899999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25272</c:v>
+                  <c:v>0.25265100000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25376700000000002</c:v>
+                  <c:v>0.25963999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27055000000000001</c:v>
+                  <c:v>0.26169100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,34 +808,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8422</c:v>
+                  <c:v>8432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8180</c:v>
+                  <c:v>8369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8296</c:v>
+                  <c:v>8338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8177</c:v>
+                  <c:v>8157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8324</c:v>
+                  <c:v>8333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8282</c:v>
+                  <c:v>8276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8293</c:v>
+                  <c:v>8226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8263</c:v>
+                  <c:v>8144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7853</c:v>
+                  <c:v>8057</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7926</c:v>
+                  <c:v>7619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,34 +920,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8299</c:v>
+                  <c:v>8339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7147</c:v>
+                  <c:v>8124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8157</c:v>
+                  <c:v>8188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7088</c:v>
+                  <c:v>7218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8031</c:v>
+                  <c:v>8176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7349</c:v>
+                  <c:v>7874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8092</c:v>
+                  <c:v>7930</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8099</c:v>
+                  <c:v>7290</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6450</c:v>
+                  <c:v>7094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7566</c:v>
+                  <c:v>6255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,34 +1293,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.243032</c:v>
+                  <c:v>0.24276500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22517300000000001</c:v>
+                  <c:v>0.244586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24671899999999999</c:v>
+                  <c:v>0.245502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22525400000000001</c:v>
+                  <c:v>0.22579399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24590300000000001</c:v>
+                  <c:v>0.24562500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22240399999999999</c:v>
+                  <c:v>0.247337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24681400000000001</c:v>
+                  <c:v>0.248832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24771299999999999</c:v>
+                  <c:v>0.22617300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20843100000000001</c:v>
+                  <c:v>0.228599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25824599999999998</c:v>
+                  <c:v>0.21484500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,34 +1419,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8422</c:v>
+                  <c:v>8432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8180</c:v>
+                  <c:v>8369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8296</c:v>
+                  <c:v>8338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8177</c:v>
+                  <c:v>8157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8324</c:v>
+                  <c:v>8333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8282</c:v>
+                  <c:v>8276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8293</c:v>
+                  <c:v>8226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8263</c:v>
+                  <c:v>8144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7853</c:v>
+                  <c:v>8057</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7926</c:v>
+                  <c:v>7619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3783,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3823,7 +3823,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3849,7 +3849,7 @@
       <c r="J2">
         <v>2047</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <f>AVERAGE(J2:J11)</f>
         <v>2047</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>12</v>
       </c>
       <c r="M2">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -3875,7 +3875,7 @@
         <v>17</v>
       </c>
       <c r="S2">
-        <v>0.26795479910711001</v>
+        <v>0.26940569196425401</v>
       </c>
       <c r="T2" t="s">
         <v>18</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="V2">
         <f>S2-H2</f>
-        <v>0.24236886160710891</v>
+        <v>0.24381975446425291</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -3893,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -3911,7 +3911,7 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>0.267968749999967</v>
+        <v>0.26941964285711201</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         <v>12</v>
       </c>
       <c r="M3">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="N3" t="s">
         <v>13</v>
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="S3">
-        <v>0.51142578125029903</v>
+        <v>0.50931919642886703</v>
       </c>
       <c r="T3" t="s">
         <v>18</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V66" si="1">S3-H3</f>
-        <v>0.24345703125033202</v>
+        <v>0.23989955357175502</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -3963,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -3981,7 +3981,7 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>0.51143973214315597</v>
+        <v>0.50933314732172497</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -3997,7 +3997,7 @@
         <v>12</v>
       </c>
       <c r="M4">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>13</v>
@@ -4015,7 +4015,7 @@
         <v>17</v>
       </c>
       <c r="S4">
-        <v>0.75445033482205903</v>
+        <v>0.75251116071491397</v>
       </c>
       <c r="T4" t="s">
         <v>18</v>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>0.24301060267890306</v>
+        <v>0.24317801339318901</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -4033,7 +4033,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -4051,7 +4051,7 @@
         <v>15</v>
       </c>
       <c r="H5">
-        <v>0.75446428571491597</v>
+        <v>0.75252511160777102</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -4067,7 +4067,7 @@
         <v>12</v>
       </c>
       <c r="M5">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="S5">
-        <v>0.99485212053667305</v>
+        <v>0.99475446428667302</v>
       </c>
       <c r="T5" t="s">
         <v>18</v>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>0.24038783482175707</v>
+        <v>0.242229352678902</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -4121,7 +4121,7 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <v>0.99486607142952999</v>
+        <v>0.99476841517952996</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -4137,7 +4137,7 @@
         <v>12</v>
       </c>
       <c r="M6">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
@@ -4155,7 +4155,7 @@
         <v>17</v>
       </c>
       <c r="S6">
-        <v>1.2366489955369999</v>
+        <v>1.2375558035727099</v>
       </c>
       <c r="T6" t="s">
         <v>18</v>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>0.24178292410746993</v>
+        <v>0.24278738839317993</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -4173,7 +4173,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -4191,7 +4191,7 @@
         <v>15</v>
       </c>
       <c r="H7">
-        <v>1.23666294642986</v>
+        <v>1.2375697544655699</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
@@ -4207,7 +4207,7 @@
         <v>12</v>
       </c>
       <c r="M7">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="N7" t="s">
         <v>13</v>
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="S7">
-        <v>1.4807896205373301</v>
+        <v>1.47924107143019</v>
       </c>
       <c r="T7" t="s">
         <v>18</v>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
-        <v>0.24412667410747013</v>
+        <v>0.24167131696462008</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -4243,7 +4243,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -4261,7 +4261,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>1.4808035714301899</v>
+        <v>1.4792550223230401</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -4277,7 +4277,7 @@
         <v>12</v>
       </c>
       <c r="M8">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>13</v>
@@ -4295,7 +4295,7 @@
         <v>17</v>
       </c>
       <c r="S8">
-        <v>1.72303292410909</v>
+        <v>1.72472098214481</v>
       </c>
       <c r="T8" t="s">
         <v>18</v>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>0.24222935267890011</v>
+        <v>0.24546595982176989</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -4313,7 +4313,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -4331,7 +4331,7 @@
         <v>15</v>
       </c>
       <c r="H9">
-        <v>1.7230468750019501</v>
+        <v>1.72473493303766</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
@@ -4347,7 +4347,7 @@
         <v>12</v>
       </c>
       <c r="M9">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="N9" t="s">
         <v>13</v>
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="S9">
-        <v>1.96572265625228</v>
+        <v>1.96923828125228</v>
       </c>
       <c r="T9" t="s">
         <v>18</v>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>0.24267578125032996</v>
+        <v>0.24450334821461994</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -4401,7 +4401,7 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <v>1.9657366071451401</v>
+        <v>1.96925223214514</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
@@ -4411,13 +4411,13 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
       </c>
       <c r="M10">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="N10" t="s">
         <v>13</v>
@@ -4435,7 +4435,7 @@
         <v>17</v>
       </c>
       <c r="S10">
-        <v>2.2123744419635201</v>
+        <v>2.2119698660706701</v>
       </c>
       <c r="T10" t="s">
         <v>18</v>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>0.24663783481837998</v>
+        <v>0.24271763392553014</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -4453,7 +4453,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -4471,7 +4471,7 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>2.2123883928563801</v>
+        <v>2.2119838169635302</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -4481,13 +4481,13 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
       </c>
       <c r="M11">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="N11" t="s">
         <v>13</v>
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="S11">
-        <v>2.4560267857099798</v>
+        <v>2.4533621651742998</v>
       </c>
       <c r="T11" t="s">
         <v>18</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>0.24363839285359967</v>
+        <v>0.24137834821076964</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L12" t="s">
         <v>10</v>
@@ -4557,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -4583,15 +4583,15 @@
       <c r="J13">
         <v>2047</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="N13" t="s">
         <v>13</v>
@@ -4609,7 +4609,7 @@
         <v>17</v>
       </c>
       <c r="S13">
-        <v>0.28330078124998798</v>
+        <v>0.26678292410710802</v>
       </c>
       <c r="T13" t="s">
         <v>18</v>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.24119698660710692</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -4627,7 +4627,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -4645,7 +4645,7 @@
         <v>15</v>
       </c>
       <c r="H14">
-        <v>0.28331473214284503</v>
+        <v>0.26679687499996502</v>
       </c>
       <c r="I14" t="s">
         <v>16</v>
@@ -4655,13 +4655,13 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
       </c>
       <c r="M14">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s">
         <v>13</v>
@@ -4679,7 +4679,7 @@
         <v>17</v>
       </c>
       <c r="S14">
-        <v>0.52599051339317604</v>
+        <v>0.506138392857435</v>
       </c>
       <c r="T14" t="s">
         <v>18</v>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>0.24267578125033101</v>
+        <v>0.23934151785746999</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -4697,7 +4697,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -4715,7 +4715,7 @@
         <v>15</v>
       </c>
       <c r="H15">
-        <v>0.52600446428603298</v>
+        <v>0.50615234375029206</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -4725,13 +4725,13 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L15" t="s">
         <v>12</v>
       </c>
       <c r="M15">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="N15" t="s">
         <v>13</v>
@@ -4749,7 +4749,7 @@
         <v>17</v>
       </c>
       <c r="S15">
-        <v>0.765890066964932</v>
+        <v>0.749832589286338</v>
       </c>
       <c r="T15" t="s">
         <v>18</v>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>0.23988560267889902</v>
+        <v>0.24368024553604595</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -4785,7 +4785,7 @@
         <v>15</v>
       </c>
       <c r="H16">
-        <v>0.76590401785778905</v>
+        <v>0.74984654017919605</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -4795,13 +4795,13 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="N16" t="s">
         <v>13</v>
@@ -4819,7 +4819,7 @@
         <v>17</v>
       </c>
       <c r="S16">
-        <v>1.01176060267955</v>
+        <v>0.99017857142952304</v>
       </c>
       <c r="T16" t="s">
         <v>18</v>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>0.24585658482176098</v>
+        <v>0.24033203125032698</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -4837,7 +4837,7 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -4855,7 +4855,7 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>1.0117745535724101</v>
+        <v>0.99019252232238097</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -4865,13 +4865,13 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s">
         <v>13</v>
@@ -4889,7 +4889,7 @@
         <v>17</v>
       </c>
       <c r="S17">
-        <v>1.2543387276798801</v>
+        <v>1.2421316964298601</v>
       </c>
       <c r="T17" t="s">
         <v>18</v>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>0.24256417410747</v>
+        <v>0.25193917410747912</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -4907,7 +4907,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -4925,7 +4925,7 @@
         <v>15</v>
       </c>
       <c r="H18">
-        <v>1.2543526785727399</v>
+        <v>1.2421456473227199</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
@@ -4935,13 +4935,13 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
       </c>
       <c r="M18">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="N18" t="s">
         <v>13</v>
@@ -4959,7 +4959,7 @@
         <v>17</v>
       </c>
       <c r="S18">
-        <v>1.4956891741087801</v>
+        <v>1.4906250000016299</v>
       </c>
       <c r="T18" t="s">
         <v>18</v>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
-        <v>0.2413364955360402</v>
+        <v>0.24847935267890997</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -4977,13 +4977,13 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -4995,29 +4995,29 @@
         <v>15</v>
       </c>
       <c r="H19">
-        <v>1.4958286830373499</v>
+        <v>1.4906389508944899</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
       </c>
       <c r="M19">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="N19" t="s">
         <v>13</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
         <v>14</v>
@@ -5029,17 +5029,17 @@
         <v>17</v>
       </c>
       <c r="S19">
-        <v>1.54754464285885</v>
+        <v>1.7410574776805401</v>
       </c>
       <c r="T19" t="s">
         <v>18</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
-        <v>5.1715959821500013E-2</v>
+        <v>0.25041852678605014</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -5065,7 +5065,7 @@
         <v>15</v>
       </c>
       <c r="H20">
-        <v>1.54755859375171</v>
+        <v>1.7410714285733999</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -5081,7 +5081,7 @@
         <v>12</v>
       </c>
       <c r="M20">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="N20" t="s">
         <v>13</v>
@@ -5099,7 +5099,7 @@
         <v>17</v>
       </c>
       <c r="S20">
-        <v>1.79128069196633</v>
+        <v>1.9836356026808699</v>
       </c>
       <c r="T20" t="s">
         <v>18</v>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
-        <v>0.24372209821461999</v>
+        <v>0.24256417410747</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -5117,7 +5117,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -5135,7 +5135,7 @@
         <v>15</v>
       </c>
       <c r="H21">
-        <v>1.7912946428591801</v>
+        <v>1.98364955357373</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -5151,7 +5151,7 @@
         <v>12</v>
       </c>
       <c r="M21">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="N21" t="s">
         <v>13</v>
@@ -5169,7 +5169,7 @@
         <v>17</v>
       </c>
       <c r="S21">
-        <v>2.03391462053755</v>
+        <v>2.2290457589275601</v>
       </c>
       <c r="T21" t="s">
         <v>18</v>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
-        <v>0.24261997767836996</v>
+        <v>0.24539620535383011</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -5187,7 +5187,7 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="H22">
-        <v>2.0339285714303998</v>
+        <v>2.2290597098204201</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
@@ -5221,7 +5221,7 @@
         <v>12</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N22" t="s">
         <v>13</v>
@@ -5239,7 +5239,7 @@
         <v>17</v>
       </c>
       <c r="S22">
-        <v>2.277566964284</v>
+        <v>2.4715680803526099</v>
       </c>
       <c r="T22" t="s">
         <v>18</v>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="1"/>
-        <v>0.24363839285360012</v>
+        <v>0.24250837053218977</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -5291,7 +5291,7 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -5309,7 +5309,7 @@
         <v>15</v>
       </c>
       <c r="H24">
-        <v>2.5599888392858199E-2</v>
+        <v>2.5585937500001099E-2</v>
       </c>
       <c r="I24" t="s">
         <v>16</v>
@@ -5317,7 +5317,7 @@
       <c r="J24">
         <v>2047</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <f t="shared" si="0"/>
         <v>2047</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>12</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="N24" t="s">
         <v>13</v>
@@ -5343,7 +5343,7 @@
         <v>17</v>
       </c>
       <c r="S24">
-        <v>0.27311662946426002</v>
+        <v>0.26739676339282298</v>
       </c>
       <c r="T24" t="s">
         <v>18</v>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="1"/>
-        <v>0.24751674107140181</v>
+        <v>0.24181082589282188</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -5361,7 +5361,7 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -5379,7 +5379,7 @@
         <v>15</v>
       </c>
       <c r="H25">
-        <v>0.27313058035711701</v>
+        <v>0.26741071428567997</v>
       </c>
       <c r="I25" t="s">
         <v>16</v>
@@ -5395,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="N25" t="s">
         <v>13</v>
@@ -5413,7 +5413,7 @@
         <v>17</v>
       </c>
       <c r="S25">
-        <v>0.52239118303602805</v>
+        <v>0.51148158482172801</v>
       </c>
       <c r="T25" t="s">
         <v>18</v>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
-        <v>0.24926060267891104</v>
+        <v>0.24407087053604803</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -5431,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -5449,7 +5449,7 @@
         <v>15</v>
       </c>
       <c r="H26">
-        <v>0.52240513392888499</v>
+        <v>0.51149553571458495</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
@@ -5465,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="M26">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="N26" t="s">
         <v>13</v>
@@ -5483,7 +5483,7 @@
         <v>17</v>
       </c>
       <c r="S26">
-        <v>0.76787109375064899</v>
+        <v>0.75539899553634604</v>
       </c>
       <c r="T26" t="s">
         <v>18</v>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>0.245465959821764</v>
+        <v>0.24390345982176109</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -5501,7 +5501,7 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -5519,7 +5519,7 @@
         <v>15</v>
       </c>
       <c r="H27">
-        <v>0.76788504464350604</v>
+        <v>0.75541294642920298</v>
       </c>
       <c r="I27" t="s">
         <v>16</v>
@@ -5535,7 +5535,7 @@
         <v>12</v>
       </c>
       <c r="M27">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="N27" t="s">
         <v>13</v>
@@ -5553,7 +5553,7 @@
         <v>17</v>
       </c>
       <c r="S27">
-        <v>1.0125697544652601</v>
+        <v>1.0041434151795401</v>
       </c>
       <c r="T27" t="s">
         <v>18</v>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>0.24468470982175405</v>
+        <v>0.24873046875033711</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -5571,7 +5571,7 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -5589,7 +5589,7 @@
         <v>15</v>
       </c>
       <c r="H28">
-        <v>1.0125837053581199</v>
+        <v>1.0041573660723999</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
@@ -5605,7 +5605,7 @@
         <v>12</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="N28" t="s">
         <v>13</v>
@@ -5623,7 +5623,7 @@
         <v>17</v>
       </c>
       <c r="S28">
-        <v>1.25548270089417</v>
+        <v>1.2494001116084399</v>
       </c>
       <c r="T28" t="s">
         <v>18</v>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="V28">
         <f t="shared" si="1"/>
-        <v>0.2428989955360501</v>
+        <v>0.24524274553603997</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -5641,7 +5641,7 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -5659,7 +5659,7 @@
         <v>15</v>
       </c>
       <c r="H29">
-        <v>1.2554966517870201</v>
+        <v>1.2494140625012999</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
@@ -5675,7 +5675,7 @@
         <v>12</v>
       </c>
       <c r="M29">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="N29" t="s">
         <v>13</v>
@@ -5693,7 +5693,7 @@
         <v>17</v>
       </c>
       <c r="S29">
-        <v>1.5064313616087901</v>
+        <v>1.49938616071593</v>
       </c>
       <c r="T29" t="s">
         <v>18</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="V29">
         <f t="shared" si="1"/>
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -5729,7 +5729,7 @@
         <v>15</v>
       </c>
       <c r="H30">
-        <v>1.5064453125016499</v>
+        <v>1.4994001116087901</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -5739,13 +5739,13 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
       </c>
       <c r="M30">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="N30" t="s">
         <v>13</v>
@@ -5763,7 +5763,7 @@
         <v>17</v>
       </c>
       <c r="S30">
-        <v>1.7504603794662701</v>
+        <v>1.74095982143054</v>
       </c>
       <c r="T30" t="s">
         <v>18</v>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="1"/>
-        <v>0.24401506696462016</v>
+        <v>0.2415597098217499</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -5781,7 +5781,7 @@
         <v>12</v>
       </c>
       <c r="B31">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -5799,7 +5799,7 @@
         <v>15</v>
       </c>
       <c r="H31">
-        <v>1.7504743303591299</v>
+        <v>1.7409737723234</v>
       </c>
       <c r="I31" t="s">
         <v>16</v>
@@ -5809,13 +5809,13 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
       </c>
       <c r="M31">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="N31" t="s">
         <v>13</v>
@@ -5833,7 +5833,7 @@
         <v>17</v>
       </c>
       <c r="S31">
-        <v>1.9949358258951799</v>
+        <v>1.98688616071659</v>
       </c>
       <c r="T31" t="s">
         <v>18</v>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
-        <v>0.24446149553605001</v>
+        <v>0.24591238839318996</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -5851,7 +5851,7 @@
         <v>12</v>
       </c>
       <c r="B32">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -5869,7 +5869,7 @@
         <v>15</v>
       </c>
       <c r="H32">
-        <v>1.99494977678803</v>
+        <v>1.98690011160945</v>
       </c>
       <c r="I32" t="s">
         <v>16</v>
@@ -5879,13 +5879,13 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
       </c>
       <c r="M32">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="N32" t="s">
         <v>13</v>
@@ -5903,7 +5903,7 @@
         <v>17</v>
       </c>
       <c r="S32">
-        <v>2.2434849330344999</v>
+        <v>2.23281249999894</v>
       </c>
       <c r="T32" t="s">
         <v>18</v>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="1"/>
-        <v>0.24853515624646993</v>
+        <v>0.24591238838949003</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
@@ -5921,7 +5921,7 @@
         <v>12</v>
       </c>
       <c r="B33">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -5939,7 +5939,7 @@
         <v>15</v>
       </c>
       <c r="H33">
-        <v>2.2434988839273502</v>
+        <v>2.2328264508917899</v>
       </c>
       <c r="I33" t="s">
         <v>16</v>
@@ -5955,7 +5955,7 @@
         <v>12</v>
       </c>
       <c r="M33">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s">
         <v>13</v>
@@ -5973,7 +5973,7 @@
         <v>17</v>
       </c>
       <c r="S33">
-        <v>2.4929129464237199</v>
+        <v>2.4807338169596198</v>
       </c>
       <c r="T33" t="s">
         <v>18</v>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>0.24941406249636966</v>
+        <v>0.24790736606782993</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
@@ -6025,7 +6025,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -6051,7 +6051,7 @@
       <c r="J35">
         <v>2047</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <f t="shared" si="0"/>
         <v>1842.3</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>12</v>
       </c>
       <c r="M35">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="N35" t="s">
         <v>13</v>
@@ -6077,7 +6077,7 @@
         <v>17</v>
       </c>
       <c r="S35">
-        <v>0.27321428571425999</v>
+        <v>0.26806640624996703</v>
       </c>
       <c r="T35" t="s">
         <v>18</v>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="V35">
         <f t="shared" si="1"/>
-        <v>0.24762834821425889</v>
+        <v>0.24248046874996593</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>12</v>
       </c>
       <c r="B36">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -6113,7 +6113,7 @@
         <v>15</v>
       </c>
       <c r="H36">
-        <v>0.27322823660711698</v>
+        <v>0.26808035714282402</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
@@ -6129,7 +6129,7 @@
         <v>12</v>
       </c>
       <c r="M36">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="N36" t="s">
         <v>13</v>
@@ -6147,7 +6147,7 @@
         <v>17</v>
       </c>
       <c r="S36">
-        <v>0.52349330357174395</v>
+        <v>0.51131417410744195</v>
       </c>
       <c r="T36" t="s">
         <v>18</v>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V36">
         <f t="shared" si="1"/>
-        <v>0.25026506696462697</v>
+        <v>0.24323381696461793</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
@@ -6165,7 +6165,7 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -6183,7 +6183,7 @@
         <v>15</v>
       </c>
       <c r="H37">
-        <v>0.523507254464601</v>
+        <v>0.51132812500029901</v>
       </c>
       <c r="I37" t="s">
         <v>16</v>
@@ -6199,7 +6199,7 @@
         <v>12</v>
       </c>
       <c r="M37">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="N37" t="s">
         <v>13</v>
@@ -6217,7 +6217,7 @@
         <v>17</v>
       </c>
       <c r="S37">
-        <v>0.76305803571492803</v>
+        <v>0.76650390625064702</v>
       </c>
       <c r="T37" t="s">
         <v>18</v>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="V37">
         <f t="shared" si="1"/>
-        <v>0.23955078125032703</v>
+        <v>0.25517578125034801</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
@@ -6235,7 +6235,7 @@
         <v>12</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -6253,7 +6253,7 @@
         <v>15</v>
       </c>
       <c r="H38">
-        <v>0.76307198660778497</v>
+        <v>0.76651785714350396</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
@@ -6269,7 +6269,7 @@
         <v>12</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="N38" t="s">
         <v>13</v>
@@ -6287,7 +6287,7 @@
         <v>17</v>
       </c>
       <c r="S38">
-        <v>1.02293526785814</v>
+        <v>1.01051897321526</v>
       </c>
       <c r="T38" t="s">
         <v>18</v>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.24400111607175601</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
@@ -6305,13 +6305,13 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -6323,13 +6323,13 @@
         <v>15</v>
       </c>
       <c r="H39">
-        <v>1.0229492187509901</v>
+        <v>1.01065848214383</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
       </c>
       <c r="J39">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
@@ -6339,13 +6339,13 @@
         <v>12</v>
       </c>
       <c r="M39">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="N39" t="s">
         <v>13</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="s">
         <v>14</v>
@@ -6357,17 +6357,17 @@
         <v>17</v>
       </c>
       <c r="S39">
-        <v>1.26629464285847</v>
+        <v>1.0574637276796099</v>
       </c>
       <c r="T39" t="s">
         <v>18</v>
       </c>
       <c r="U39">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="V39">
         <f t="shared" si="1"/>
-        <v>0.24334542410747995</v>
+        <v>4.6805245535779916E-2</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
@@ -6375,7 +6375,7 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -6393,7 +6393,7 @@
         <v>15</v>
       </c>
       <c r="H40">
-        <v>1.2663085937513201</v>
+        <v>1.05747767857247</v>
       </c>
       <c r="I40" t="s">
         <v>16</v>
@@ -6403,13 +6403,13 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L40" t="s">
         <v>12</v>
       </c>
       <c r="M40">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="N40" t="s">
         <v>13</v>
@@ -6427,7 +6427,7 @@
         <v>17</v>
       </c>
       <c r="S40">
-        <v>1.5094308035730799</v>
+        <v>1.3035016741085199</v>
       </c>
       <c r="T40" t="s">
         <v>18</v>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="1"/>
-        <v>0.2431222098217598</v>
+        <v>0.24602399553604992</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
@@ -6445,7 +6445,7 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -6463,7 +6463,7 @@
         <v>15</v>
       </c>
       <c r="H41">
-        <v>1.50944475446594</v>
+        <v>1.30351562500138</v>
       </c>
       <c r="I41" t="s">
         <v>16</v>
@@ -6473,13 +6473,13 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L41" t="s">
         <v>12</v>
       </c>
       <c r="M41">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N41" t="s">
         <v>13</v>
@@ -6497,7 +6497,7 @@
         <v>17</v>
       </c>
       <c r="S41">
-        <v>1.7560267857162799</v>
+        <v>1.54730747768028</v>
       </c>
       <c r="T41" t="s">
         <v>18</v>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="1"/>
-        <v>0.24658203125033995</v>
+        <v>0.24379185267890002</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
@@ -6515,13 +6515,13 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -6533,29 +6533,29 @@
         <v>15</v>
       </c>
       <c r="H42">
-        <v>1.75616629464485</v>
+        <v>1.54732142857314</v>
       </c>
       <c r="I42" t="s">
         <v>16</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L42" t="s">
         <v>12</v>
       </c>
       <c r="M42">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N42" t="s">
         <v>13</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="s">
         <v>14</v>
@@ -6567,17 +6567,17 @@
         <v>17</v>
       </c>
       <c r="S42">
-        <v>1.7887974330377501</v>
+        <v>1.7922293526806099</v>
       </c>
       <c r="T42" t="s">
         <v>18</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V42">
         <f t="shared" si="1"/>
-        <v>3.2631138392900105E-2</v>
+        <v>0.24490792410746987</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
@@ -6585,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -6603,7 +6603,7 @@
         <v>15</v>
       </c>
       <c r="H43">
-        <v>1.7888113839306099</v>
+        <v>1.7922433035734699</v>
       </c>
       <c r="I43" t="s">
         <v>16</v>
@@ -6619,7 +6619,7 @@
         <v>12</v>
       </c>
       <c r="M43">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="N43" t="s">
         <v>13</v>
@@ -6637,7 +6637,7 @@
         <v>17</v>
       </c>
       <c r="S43">
-        <v>2.03604910714466</v>
+        <v>2.0368024553589299</v>
       </c>
       <c r="T43" t="s">
         <v>18</v>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="1"/>
-        <v>0.24723772321405013</v>
+        <v>0.24455915178545995</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -6673,7 +6673,7 @@
         <v>15</v>
       </c>
       <c r="H44">
-        <v>2.0360630580375099</v>
+        <v>2.0368164062517899</v>
       </c>
       <c r="I44" t="s">
         <v>16</v>
@@ -6689,7 +6689,7 @@
         <v>12</v>
       </c>
       <c r="M44">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="N44" t="s">
         <v>13</v>
@@ -6707,7 +6707,7 @@
         <v>17</v>
       </c>
       <c r="S44">
-        <v>2.2783761160696998</v>
+        <v>2.28377511160534</v>
       </c>
       <c r="T44" t="s">
         <v>18</v>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="1"/>
-        <v>0.24231305803218994</v>
+        <v>0.24695870535355002</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -6785,7 +6785,7 @@
       <c r="J46">
         <v>2047</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <f t="shared" si="0"/>
         <v>2047</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>12</v>
       </c>
       <c r="M46">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="N46" t="s">
         <v>13</v>
@@ -6811,7 +6811,7 @@
         <v>17</v>
       </c>
       <c r="S46">
-        <v>0.27214006696425802</v>
+        <v>0.26672712053567899</v>
       </c>
       <c r="T46" t="s">
         <v>18</v>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="1"/>
-        <v>0.24655412946425692</v>
+        <v>0.24114118303567789</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
@@ -6829,7 +6829,7 @@
         <v>12</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -6847,7 +6847,7 @@
         <v>15</v>
       </c>
       <c r="H47">
-        <v>0.27215401785711502</v>
+        <v>0.26674107142853698</v>
       </c>
       <c r="I47" t="s">
         <v>16</v>
@@ -6863,7 +6863,7 @@
         <v>12</v>
       </c>
       <c r="M47">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="N47" t="s">
         <v>13</v>
@@ -6881,7 +6881,7 @@
         <v>17</v>
       </c>
       <c r="S47">
-        <v>0.51382533482173098</v>
+        <v>0.50764508928600804</v>
       </c>
       <c r="T47" t="s">
         <v>18</v>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="1"/>
-        <v>0.24167131696461597</v>
+        <v>0.24090401785747106</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
@@ -6899,7 +6899,7 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -6917,7 +6917,7 @@
         <v>15</v>
       </c>
       <c r="H48">
-        <v>0.51383928571458803</v>
+        <v>0.50765904017886498</v>
       </c>
       <c r="I48" t="s">
         <v>16</v>
@@ -6933,7 +6933,7 @@
         <v>12</v>
       </c>
       <c r="M48">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="N48" t="s">
         <v>13</v>
@@ -6951,7 +6951,7 @@
         <v>17</v>
       </c>
       <c r="S48">
-        <v>0.75690569196491997</v>
+        <v>0.75306919642920001</v>
       </c>
       <c r="T48" t="s">
         <v>18</v>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="1"/>
-        <v>0.24306640625033193</v>
+        <v>0.24541015625033502</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
@@ -6969,7 +6969,7 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -6987,7 +6987,7 @@
         <v>15</v>
       </c>
       <c r="H49">
-        <v>0.75691964285777702</v>
+        <v>0.75308314732205694</v>
       </c>
       <c r="I49" t="s">
         <v>16</v>
@@ -7003,7 +7003,7 @@
         <v>12</v>
       </c>
       <c r="M49">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="N49" t="s">
         <v>13</v>
@@ -7021,7 +7021,7 @@
         <v>17</v>
       </c>
       <c r="S49">
-        <v>1.0018415178581099</v>
+        <v>0.99436383928667205</v>
       </c>
       <c r="T49" t="s">
         <v>18</v>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="V49">
         <f t="shared" si="1"/>
-        <v>0.24492187500033291</v>
+        <v>0.2412806919646151</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -7039,7 +7039,7 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -7057,7 +7057,7 @@
         <v>15</v>
       </c>
       <c r="H50">
-        <v>1.00185546875096</v>
+        <v>0.99437779017952899</v>
       </c>
       <c r="I50" t="s">
         <v>16</v>
@@ -7073,7 +7073,7 @@
         <v>12</v>
       </c>
       <c r="M50">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="N50" t="s">
         <v>13</v>
@@ -7091,7 +7091,7 @@
         <v>17</v>
       </c>
       <c r="S50">
-        <v>1.2466517857155801</v>
+        <v>1.24174107142986</v>
       </c>
       <c r="T50" t="s">
         <v>18</v>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="V50">
         <f t="shared" si="1"/>
-        <v>0.24479631696462012</v>
+        <v>0.24736328125033102</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
@@ -7109,7 +7109,7 @@
         <v>12</v>
       </c>
       <c r="B51">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -7127,7 +7127,7 @@
         <v>15</v>
       </c>
       <c r="H51">
-        <v>1.2466657366084399</v>
+        <v>1.2417550223227201</v>
       </c>
       <c r="I51" t="s">
         <v>16</v>
@@ -7137,13 +7137,13 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L51" t="s">
         <v>12</v>
       </c>
       <c r="M51">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="N51" t="s">
         <v>13</v>
@@ -7161,7 +7161,7 @@
         <v>17</v>
       </c>
       <c r="S51">
-        <v>1.48956473214449</v>
+        <v>1.49206194196592</v>
       </c>
       <c r="T51" t="s">
         <v>18</v>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="V51">
         <f t="shared" si="1"/>
-        <v>0.2428989955360501</v>
+        <v>0.25030691964319995</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
@@ -7179,7 +7179,7 @@
         <v>12</v>
       </c>
       <c r="B52">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -7197,7 +7197,7 @@
         <v>15</v>
       </c>
       <c r="H52">
-        <v>1.4895786830373401</v>
+        <v>1.4920758928587801</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
@@ -7207,13 +7207,13 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L52" t="s">
         <v>12</v>
       </c>
       <c r="M52">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="N52" t="s">
         <v>13</v>
@@ -7231,7 +7231,7 @@
         <v>17</v>
       </c>
       <c r="S52">
-        <v>1.73303571428768</v>
+        <v>1.73809988839483</v>
       </c>
       <c r="T52" t="s">
         <v>18</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="V52">
         <f t="shared" si="1"/>
-        <v>0.24345703125033991</v>
+        <v>0.24602399553604992</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
@@ -7249,7 +7249,7 @@
         <v>12</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -7267,7 +7267,7 @@
         <v>15</v>
       </c>
       <c r="H53">
-        <v>1.7330496651805301</v>
+        <v>1.73811383928768</v>
       </c>
       <c r="I53" t="s">
         <v>16</v>
@@ -7277,13 +7277,13 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L53" t="s">
         <v>12</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="N53" t="s">
         <v>13</v>
@@ -7301,7 +7301,7 @@
         <v>17</v>
       </c>
       <c r="S53">
-        <v>1.9824218750022999</v>
+        <v>1.9838030133951601</v>
       </c>
       <c r="T53" t="s">
         <v>18</v>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="1"/>
-        <v>0.24937220982176989</v>
+        <v>0.24568917410748004</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>12</v>
       </c>
       <c r="B54">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -7337,7 +7337,7 @@
         <v>15</v>
       </c>
       <c r="H54">
-        <v>1.98243582589516</v>
+        <v>1.9838169642880199</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
@@ -7347,13 +7347,13 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L54" t="s">
         <v>12</v>
       </c>
       <c r="M54">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="N54" t="s">
         <v>13</v>
@@ -7371,7 +7371,7 @@
         <v>17</v>
       </c>
       <c r="S54">
-        <v>2.2373186383917298</v>
+        <v>2.2341657366060601</v>
       </c>
       <c r="T54" t="s">
         <v>18</v>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="V54">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.2503487723180402</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
@@ -7389,7 +7389,7 @@
         <v>12</v>
       </c>
       <c r="B55">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -7407,7 +7407,7 @@
         <v>15</v>
       </c>
       <c r="H55">
-        <v>2.2373325892845899</v>
+        <v>2.2341796874989202</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
@@ -7417,13 +7417,13 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L55" t="s">
         <v>12</v>
       </c>
       <c r="M55">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="N55" t="s">
         <v>13</v>
@@ -7441,7 +7441,7 @@
         <v>17</v>
       </c>
       <c r="S55">
-        <v>2.4847377232095602</v>
+        <v>2.4819614955310301</v>
       </c>
       <c r="T55" t="s">
         <v>18</v>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="1"/>
-        <v>0.24740513392497032</v>
+        <v>0.24778180803210992</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L56" t="s">
         <v>10</v>
@@ -7493,7 +7493,7 @@
         <v>12</v>
       </c>
       <c r="B57">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -7511,7 +7511,7 @@
         <v>15</v>
       </c>
       <c r="H57">
-        <v>2.5599888392858199E-2</v>
+        <v>2.5627790178572502E-2</v>
       </c>
       <c r="I57" t="s">
         <v>16</v>
@@ -7519,15 +7519,15 @@
       <c r="J57">
         <v>2047</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="2">
         <f t="shared" si="0"/>
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="L57" t="s">
         <v>12</v>
       </c>
       <c r="M57">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="N57" t="s">
         <v>13</v>
@@ -7545,7 +7545,7 @@
         <v>17</v>
       </c>
       <c r="S57">
-        <v>0.27621372767854901</v>
+        <v>0.270744977678542</v>
       </c>
       <c r="T57" t="s">
         <v>18</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="V57">
         <f t="shared" si="1"/>
-        <v>0.25061383928569081</v>
+        <v>0.2451171874999695</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -7563,7 +7563,7 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -7581,7 +7581,7 @@
         <v>15</v>
       </c>
       <c r="H58">
-        <v>0.27622767857140701</v>
+        <v>0.27075892857139899</v>
       </c>
       <c r="I58" t="s">
         <v>16</v>
@@ -7591,13 +7591,13 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L58" t="s">
         <v>12</v>
       </c>
       <c r="M58">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="N58" t="s">
         <v>13</v>
@@ -7615,7 +7615,7 @@
         <v>17</v>
       </c>
       <c r="S58">
-        <v>0.52068917410745397</v>
+        <v>0.51226283482172896</v>
       </c>
       <c r="T58" t="s">
         <v>18</v>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="1"/>
-        <v>0.24446149553604696</v>
+        <v>0.24150390625032997</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
@@ -7633,7 +7633,7 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -7651,7 +7651,7 @@
         <v>15</v>
       </c>
       <c r="H59">
-        <v>0.52070312500031202</v>
+        <v>0.51227678571458601</v>
       </c>
       <c r="I59" t="s">
         <v>16</v>
@@ -7661,13 +7661,13 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L59" t="s">
         <v>12</v>
       </c>
       <c r="M59">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="N59" t="s">
         <v>13</v>
@@ -7685,7 +7685,7 @@
         <v>17</v>
       </c>
       <c r="S59">
-        <v>0.76393694196492901</v>
+        <v>0.76058872767921004</v>
       </c>
       <c r="T59" t="s">
         <v>18</v>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="1"/>
-        <v>0.24323381696461699</v>
+        <v>0.24831194196462403</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
@@ -7703,13 +7703,13 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -7721,29 +7721,29 @@
         <v>15</v>
       </c>
       <c r="H60">
-        <v>0.76407645089350096</v>
+        <v>0.76060267857206698</v>
       </c>
       <c r="I60" t="s">
         <v>16</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>1819.5555555555557</v>
+        <v>2047</v>
       </c>
       <c r="L60" t="s">
         <v>12</v>
       </c>
       <c r="M60">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="N60" t="s">
         <v>13</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="s">
         <v>14</v>
@@ -7755,17 +7755,17 @@
         <v>17</v>
       </c>
       <c r="S60">
-        <v>0.77844587053637704</v>
+        <v>1.01767578125099</v>
       </c>
       <c r="T60" t="s">
         <v>18</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V60">
         <f t="shared" si="1"/>
-        <v>1.436941964287608E-2</v>
+        <v>0.25707310267892303</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
@@ -7773,7 +7773,7 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -7791,7 +7791,7 @@
         <v>15</v>
       </c>
       <c r="H61">
-        <v>0.77845982142923498</v>
+        <v>1.0176897321438401</v>
       </c>
       <c r="I61" t="s">
         <v>16</v>
@@ -7807,7 +7807,7 @@
         <v>12</v>
       </c>
       <c r="M61">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="N61" t="s">
         <v>13</v>
@@ -7825,7 +7825,7 @@
         <v>17</v>
       </c>
       <c r="S61">
-        <v>1.02481863839385</v>
+        <v>1.2625279017870299</v>
       </c>
       <c r="T61" t="s">
         <v>18</v>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="V61">
         <f t="shared" si="1"/>
-        <v>0.24635881696461503</v>
+        <v>0.24483816964318983</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
@@ -7843,7 +7843,7 @@
         <v>12</v>
       </c>
       <c r="B62">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -7861,7 +7861,7 @@
         <v>15</v>
       </c>
       <c r="H62">
-        <v>1.0248325892867101</v>
+        <v>1.2625418526798899</v>
       </c>
       <c r="I62" t="s">
         <v>16</v>
@@ -7877,7 +7877,7 @@
         <v>12</v>
       </c>
       <c r="M62">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N62" t="s">
         <v>13</v>
@@ -7895,7 +7895,7 @@
         <v>17</v>
       </c>
       <c r="S62">
-        <v>1.27007533482276</v>
+        <v>1.5068219866088</v>
       </c>
       <c r="T62" t="s">
         <v>18</v>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="1"/>
-        <v>0.24524274553604997</v>
+        <v>0.24428013392891001</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
@@ -7913,7 +7913,7 @@
         <v>12</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -7931,7 +7931,7 @@
         <v>15</v>
       </c>
       <c r="H63">
-        <v>1.2700892857156201</v>
+        <v>1.50683593750165</v>
       </c>
       <c r="I63" t="s">
         <v>16</v>
@@ -7947,7 +7947,7 @@
         <v>12</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="N63" t="s">
         <v>13</v>
@@ -7965,7 +7965,7 @@
         <v>17</v>
       </c>
       <c r="S63">
-        <v>1.51477399553738</v>
+        <v>1.75189732143056</v>
       </c>
       <c r="T63" t="s">
         <v>18</v>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="1"/>
-        <v>0.24468470982175994</v>
+        <v>0.24506138392890997</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
@@ -7983,7 +7983,7 @@
         <v>12</v>
       </c>
       <c r="B64">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -8001,7 +8001,7 @@
         <v>15</v>
       </c>
       <c r="H64">
-        <v>1.5147879464302301</v>
+        <v>1.75191127232342</v>
       </c>
       <c r="I64" t="s">
         <v>16</v>
@@ -8017,7 +8017,7 @@
         <v>12</v>
       </c>
       <c r="M64">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="N64" t="s">
         <v>13</v>
@@ -8035,7 +8035,7 @@
         <v>17</v>
       </c>
       <c r="S64">
-        <v>1.75824497768057</v>
+        <v>1.99514508928803</v>
       </c>
       <c r="T64" t="s">
         <v>18</v>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="V64">
         <f t="shared" si="1"/>
-        <v>0.24345703125033991</v>
+        <v>0.24323381696460999</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
@@ -8053,7 +8053,7 @@
         <v>12</v>
       </c>
       <c r="B65">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -8071,7 +8071,7 @@
         <v>15</v>
       </c>
       <c r="H65">
-        <v>1.75825892857342</v>
+        <v>1.9951590401808901</v>
       </c>
       <c r="I65" t="s">
         <v>16</v>
@@ -8087,7 +8087,7 @@
         <v>12</v>
       </c>
       <c r="M65">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="N65" t="s">
         <v>13</v>
@@ -8105,7 +8105,7 @@
         <v>17</v>
       </c>
       <c r="S65">
-        <v>2.0053571428593902</v>
+        <v>2.2391462053559898</v>
       </c>
       <c r="T65" t="s">
         <v>18</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="V65">
         <f t="shared" si="1"/>
-        <v>0.24709821428597012</v>
+        <v>0.24398716517509977</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -8123,7 +8123,7 @@
         <v>12</v>
       </c>
       <c r="B66">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -8141,7 +8141,7 @@
         <v>15</v>
       </c>
       <c r="H66">
-        <v>2.0053710937522502</v>
+        <v>2.2391601562488499</v>
       </c>
       <c r="I66" t="s">
         <v>16</v>
@@ -8157,7 +8157,7 @@
         <v>12</v>
       </c>
       <c r="M66">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="N66" t="s">
         <v>13</v>
@@ -8175,7 +8175,7 @@
         <v>17</v>
       </c>
       <c r="S66">
-        <v>2.24988839285583</v>
+        <v>2.4991210937450599</v>
       </c>
       <c r="T66" t="s">
         <v>18</v>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="V66">
         <f t="shared" si="1"/>
-        <v>0.24451729910357978</v>
+        <v>0.25996093749620997</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
@@ -8227,7 +8227,7 @@
         <v>12</v>
       </c>
       <c r="B68">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -8253,7 +8253,7 @@
       <c r="J68">
         <v>2047</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <f t="shared" si="2"/>
         <v>2047</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>12</v>
       </c>
       <c r="M68">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="N68" t="s">
         <v>13</v>
@@ -8279,7 +8279,7 @@
         <v>17</v>
       </c>
       <c r="S68">
-        <v>0.269126674107111</v>
+        <v>0.27141462053568599</v>
       </c>
       <c r="T68" t="s">
         <v>18</v>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="V68">
         <f t="shared" si="3"/>
-        <v>0.2435407366071099</v>
+        <v>0.24582868303568489</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
@@ -8297,7 +8297,7 @@
         <v>12</v>
       </c>
       <c r="B69">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -8315,7 +8315,7 @@
         <v>15</v>
       </c>
       <c r="H69">
-        <v>0.26914062499996799</v>
+        <v>0.27142857142854299</v>
       </c>
       <c r="I69" t="s">
         <v>16</v>
@@ -8331,7 +8331,7 @@
         <v>12</v>
       </c>
       <c r="M69">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="N69" t="s">
         <v>13</v>
@@ -8349,7 +8349,7 @@
         <v>17</v>
       </c>
       <c r="S69">
-        <v>0.51188616071458504</v>
+        <v>0.52342354910745803</v>
       </c>
       <c r="T69" t="s">
         <v>18</v>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="V69">
         <f t="shared" si="3"/>
-        <v>0.24274553571461704</v>
+        <v>0.25199497767891504</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
@@ -8367,7 +8367,7 @@
         <v>12</v>
       </c>
       <c r="B70">
-        <v>230</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -8385,7 +8385,7 @@
         <v>15</v>
       </c>
       <c r="H70">
-        <v>0.51190011160744198</v>
+        <v>0.52343750000031497</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
@@ -8401,7 +8401,7 @@
         <v>12</v>
       </c>
       <c r="M70">
-        <v>230</v>
+        <v>47</v>
       </c>
       <c r="N70" t="s">
         <v>13</v>
@@ -8419,7 +8419,7 @@
         <v>17</v>
       </c>
       <c r="S70">
-        <v>0.76484375000064497</v>
+        <v>0.77392578125065703</v>
       </c>
       <c r="T70" t="s">
         <v>18</v>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="3"/>
-        <v>0.252943638393203</v>
+        <v>0.25048828125034206</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -8437,7 +8437,7 @@
         <v>12</v>
       </c>
       <c r="B71">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -8455,7 +8455,7 @@
         <v>15</v>
       </c>
       <c r="H71">
-        <v>0.76485770089350202</v>
+        <v>0.77393973214351397</v>
       </c>
       <c r="I71" t="s">
         <v>16</v>
@@ -8471,7 +8471,7 @@
         <v>12</v>
       </c>
       <c r="M71">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="N71" t="s">
         <v>13</v>
@@ -8489,7 +8489,7 @@
         <v>17</v>
       </c>
       <c r="S71">
-        <v>1.01077008928669</v>
+        <v>1.02286551339385</v>
       </c>
       <c r="T71" t="s">
         <v>18</v>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="V71">
         <f t="shared" si="3"/>
-        <v>0.24591238839318796</v>
+        <v>0.24892578125033604</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
@@ -8507,7 +8507,7 @@
         <v>12</v>
       </c>
       <c r="B72">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -8525,7 +8525,7 @@
         <v>15</v>
       </c>
       <c r="H72">
-        <v>1.01078404017955</v>
+        <v>1.0228794642867101</v>
       </c>
       <c r="I72" t="s">
         <v>16</v>
@@ -8541,7 +8541,7 @@
         <v>12</v>
       </c>
       <c r="M72">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="N72" t="s">
         <v>13</v>
@@ -8559,7 +8559,7 @@
         <v>17</v>
       </c>
       <c r="S72">
-        <v>1.2569196428584499</v>
+        <v>1.2692382812513301</v>
       </c>
       <c r="T72" t="s">
         <v>18</v>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="3"/>
-        <v>0.24613560267889989</v>
+        <v>0.24635881696462003</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -8577,7 +8577,7 @@
         <v>12</v>
       </c>
       <c r="B73">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -8595,7 +8595,7 @@
         <v>15</v>
       </c>
       <c r="H73">
-        <v>1.25693359375131</v>
+        <v>1.2692522321441899</v>
       </c>
       <c r="I73" t="s">
         <v>16</v>
@@ -8611,7 +8611,7 @@
         <v>12</v>
       </c>
       <c r="M73">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="N73" t="s">
         <v>13</v>
@@ -8629,7 +8629,7 @@
         <v>17</v>
       </c>
       <c r="S73">
-        <v>1.5017717633945</v>
+        <v>1.51464843750166</v>
       </c>
       <c r="T73" t="s">
         <v>18</v>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="3"/>
-        <v>0.24483816964319005</v>
+        <v>0.24539620535747009</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
@@ -8647,7 +8647,7 @@
         <v>12</v>
       </c>
       <c r="B74">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -8665,7 +8665,7 @@
         <v>15</v>
       </c>
       <c r="H74">
-        <v>1.5017857142873601</v>
+        <v>1.5146623883945201</v>
       </c>
       <c r="I74" t="s">
         <v>16</v>
@@ -8681,7 +8681,7 @@
         <v>12</v>
       </c>
       <c r="M74">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="N74" t="s">
         <v>13</v>
@@ -8699,7 +8699,7 @@
         <v>17</v>
       </c>
       <c r="S74">
-        <v>1.7506417410734101</v>
+        <v>1.76251395089486</v>
       </c>
       <c r="T74" t="s">
         <v>18</v>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="3"/>
-        <v>0.24885602678605001</v>
+        <v>0.24785156250033991</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -8717,7 +8717,7 @@
         <v>12</v>
       </c>
       <c r="B75">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -8735,7 +8735,7 @@
         <v>15</v>
       </c>
       <c r="H75">
-        <v>1.7506556919662699</v>
+        <v>1.76252790178772</v>
       </c>
       <c r="I75" t="s">
         <v>16</v>
@@ -8745,13 +8745,13 @@
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L75" t="s">
         <v>12</v>
       </c>
       <c r="M75">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="N75" t="s">
         <v>13</v>
@@ -8769,7 +8769,7 @@
         <v>17</v>
       </c>
       <c r="S75">
-        <v>1.9971679687523201</v>
+        <v>2.0206473214306002</v>
       </c>
       <c r="T75" t="s">
         <v>18</v>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="V75">
         <f t="shared" si="3"/>
-        <v>0.24651227678605014</v>
+        <v>0.25811941964288021</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -8787,7 +8787,7 @@
         <v>12</v>
       </c>
       <c r="B76">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -8805,7 +8805,7 @@
         <v>15</v>
       </c>
       <c r="H76">
-        <v>1.9971819196451801</v>
+        <v>2.0206612723234501</v>
       </c>
       <c r="I76" t="s">
         <v>16</v>
@@ -8815,13 +8815,13 @@
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L76" t="s">
         <v>12</v>
       </c>
       <c r="M76">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="N76" t="s">
         <v>13</v>
@@ -8839,7 +8839,7 @@
         <v>17</v>
       </c>
       <c r="S76">
-        <v>2.2468749999987301</v>
+        <v>2.2677455357127099</v>
       </c>
       <c r="T76" t="s">
         <v>18</v>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="3"/>
-        <v>0.24969308035354998</v>
+        <v>0.24708426338925982</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
@@ -8857,7 +8857,7 @@
         <v>12</v>
       </c>
       <c r="B77">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -8875,7 +8875,7 @@
         <v>15</v>
       </c>
       <c r="H77">
-        <v>2.2468889508915901</v>
+        <v>2.2677594866055699</v>
       </c>
       <c r="I77" t="s">
         <v>16</v>
@@ -8885,13 +8885,13 @@
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L77" t="s">
         <v>12</v>
       </c>
       <c r="M77">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="N77" t="s">
         <v>13</v>
@@ -8909,7 +8909,7 @@
         <v>17</v>
       </c>
       <c r="S77">
-        <v>2.4938476562451402</v>
+        <v>2.5140345982091299</v>
       </c>
       <c r="T77" t="s">
         <v>18</v>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="3"/>
-        <v>0.24695870535355002</v>
+        <v>0.24627511160355997</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L78" t="s">
         <v>10</v>
@@ -8961,7 +8961,7 @@
         <v>12</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -8987,15 +8987,15 @@
       <c r="J79">
         <v>2047</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="2">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="L79" t="s">
         <v>12</v>
       </c>
       <c r="M79">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N79" t="s">
         <v>13</v>
@@ -9013,7 +9013,7 @@
         <v>17</v>
       </c>
       <c r="S79">
-        <v>0.27367466517854599</v>
+        <v>0.27041015624997</v>
       </c>
       <c r="T79" t="s">
         <v>18</v>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="V79">
         <f t="shared" si="3"/>
-        <v>0.2480887276785449</v>
+        <v>0.2448242187499689</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
@@ -9031,7 +9031,7 @@
         <v>12</v>
       </c>
       <c r="B80">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -9049,7 +9049,7 @@
         <v>15</v>
       </c>
       <c r="H80">
-        <v>0.27368861607140299</v>
+        <v>0.270424107142827</v>
       </c>
       <c r="I80" t="s">
         <v>16</v>
@@ -9059,13 +9059,13 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L80" t="s">
         <v>12</v>
       </c>
       <c r="M80">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="N80" t="s">
         <v>13</v>
@@ -9083,7 +9083,7 @@
         <v>17</v>
       </c>
       <c r="S80">
-        <v>0.51842912946459396</v>
+        <v>0.51990792410745301</v>
       </c>
       <c r="T80" t="s">
         <v>18</v>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="V80">
         <f t="shared" si="3"/>
-        <v>0.24474051339319097</v>
+        <v>0.24948381696462602</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
@@ -9101,7 +9101,7 @@
         <v>12</v>
       </c>
       <c r="B81">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -9119,7 +9119,7 @@
         <v>15</v>
       </c>
       <c r="H81">
-        <v>0.51844308035745101</v>
+        <v>0.51992187500031095</v>
       </c>
       <c r="I81" t="s">
         <v>16</v>
@@ -9129,13 +9129,13 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L81" t="s">
         <v>12</v>
       </c>
       <c r="M81">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="N81" t="s">
         <v>13</v>
@@ -9153,7 +9153,7 @@
         <v>17</v>
       </c>
       <c r="S81">
-        <v>0.76552734375064602</v>
+        <v>0.76376953125064295</v>
       </c>
       <c r="T81" t="s">
         <v>18</v>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="V81">
         <f t="shared" si="3"/>
-        <v>0.247084263393195</v>
+        <v>0.243847656250332</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
@@ -9171,7 +9171,7 @@
         <v>12</v>
       </c>
       <c r="B82">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -9189,7 +9189,7 @@
         <v>15</v>
       </c>
       <c r="H82">
-        <v>0.76554129464350296</v>
+        <v>0.7637834821435</v>
       </c>
       <c r="I82" t="s">
         <v>16</v>
@@ -9199,13 +9199,13 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L82" t="s">
         <v>12</v>
       </c>
       <c r="M82">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="N82" t="s">
         <v>13</v>
@@ -9223,7 +9223,7 @@
         <v>17</v>
       </c>
       <c r="S82">
-        <v>1.01064453125098</v>
+        <v>1.0164341517866999</v>
       </c>
       <c r="T82" t="s">
         <v>18</v>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="V82">
         <f t="shared" si="3"/>
-        <v>0.24510323660747702</v>
+        <v>0.25265066964319993</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
@@ -9241,7 +9241,7 @@
         <v>12</v>
       </c>
       <c r="B83">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -9259,7 +9259,7 @@
         <v>15</v>
       </c>
       <c r="H83">
-        <v>1.01065848214383</v>
+        <v>1.01644810267955</v>
       </c>
       <c r="I83" t="s">
         <v>16</v>
@@ -9269,13 +9269,13 @@
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L83" t="s">
         <v>12</v>
       </c>
       <c r="M83">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="N83" t="s">
         <v>13</v>
@@ -9293,7 +9293,7 @@
         <v>17</v>
       </c>
       <c r="S83">
-        <v>1.25627790178702</v>
+        <v>1.2644810267870401</v>
       </c>
       <c r="T83" t="s">
         <v>18</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="3"/>
-        <v>0.24561941964319001</v>
+        <v>0.24803292410749012</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
@@ -9311,13 +9311,13 @@
         <v>12</v>
       </c>
       <c r="B84">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -9329,29 +9329,29 @@
         <v>15</v>
       </c>
       <c r="H84">
-        <v>1.2562918526798801</v>
+        <v>1.26462053571561</v>
       </c>
       <c r="I84" t="s">
         <v>16</v>
       </c>
       <c r="J84">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L84" t="s">
         <v>12</v>
       </c>
       <c r="M84">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="N84" t="s">
         <v>13</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84" t="s">
         <v>14</v>
@@ -9363,17 +9363,17 @@
         <v>17</v>
       </c>
       <c r="S84">
-        <v>1.5090122767873699</v>
+        <v>1.2898856026799299</v>
       </c>
       <c r="T84" t="s">
         <v>18</v>
       </c>
       <c r="U84">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="V84">
         <f t="shared" si="3"/>
-        <v>0.25272042410748985</v>
+        <v>2.526506696431996E-2</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
@@ -9381,7 +9381,7 @@
         <v>12</v>
       </c>
       <c r="B85">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -9399,7 +9399,7 @@
         <v>15</v>
       </c>
       <c r="H85">
-        <v>1.50902622768023</v>
+        <v>1.28989955357279</v>
       </c>
       <c r="I85" t="s">
         <v>16</v>
@@ -9409,13 +9409,13 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L85" t="s">
         <v>12</v>
       </c>
       <c r="M85">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="N85" t="s">
         <v>13</v>
@@ -9433,7 +9433,7 @@
         <v>17</v>
       </c>
       <c r="S85">
-        <v>1.7552734375019901</v>
+        <v>1.54083426339456</v>
       </c>
       <c r="T85" t="s">
         <v>18</v>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="V85">
         <f t="shared" si="3"/>
-        <v>0.24624720982176007</v>
+        <v>0.25093470982177002</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
@@ -9451,7 +9451,7 @@
         <v>12</v>
       </c>
       <c r="B86">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -9469,7 +9469,7 @@
         <v>15</v>
       </c>
       <c r="H86">
-        <v>1.7552873883948501</v>
+        <v>1.54084821428741</v>
       </c>
       <c r="I86" t="s">
         <v>16</v>
@@ -9485,7 +9485,7 @@
         <v>12</v>
       </c>
       <c r="M86">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="N86" t="s">
         <v>13</v>
@@ -9503,7 +9503,7 @@
         <v>17</v>
       </c>
       <c r="S86">
-        <v>2.0061941964308101</v>
+        <v>1.7878766741091801</v>
       </c>
       <c r="T86" t="s">
         <v>18</v>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="V86">
         <f t="shared" si="3"/>
-        <v>0.25090680803595999</v>
+        <v>0.24702845982177002</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
@@ -9521,7 +9521,7 @@
         <v>12</v>
       </c>
       <c r="B87">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -9539,7 +9539,7 @@
         <v>15</v>
       </c>
       <c r="H87">
-        <v>2.0062081473236599</v>
+        <v>1.7878906250020401</v>
       </c>
       <c r="I87" t="s">
         <v>16</v>
@@ -9549,13 +9549,13 @@
       </c>
       <c r="K87">
         <f t="shared" si="2"/>
-        <v>1592.1111111111111</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L87" t="s">
         <v>12</v>
       </c>
       <c r="M87">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="N87" t="s">
         <v>13</v>
@@ -9573,7 +9573,7 @@
         <v>17</v>
       </c>
       <c r="S87">
-        <v>2.2542968749986199</v>
+        <v>2.0397181919660299</v>
       </c>
       <c r="T87" t="s">
         <v>18</v>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="V87">
         <f t="shared" si="3"/>
-        <v>0.24808872767495993</v>
+        <v>0.25182756696398978</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
@@ -9591,7 +9591,7 @@
         <v>12</v>
       </c>
       <c r="B88">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -9609,7 +9609,7 @@
         <v>15</v>
       </c>
       <c r="H88">
-        <v>2.2543108258914799</v>
+        <v>2.0397321428588899</v>
       </c>
       <c r="I88" t="s">
         <v>16</v>
@@ -9619,13 +9619,13 @@
       </c>
       <c r="K88">
         <f t="shared" si="2"/>
-        <v>1592.1111111111111</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L88" t="s">
         <v>12</v>
       </c>
       <c r="M88">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="N88" t="s">
         <v>13</v>
@@ -9643,7 +9643,7 @@
         <v>17</v>
       </c>
       <c r="S88">
-        <v>2.5028459821378699</v>
+        <v>2.2875697544624298</v>
       </c>
       <c r="T88" t="s">
         <v>18</v>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V88">
         <f t="shared" si="3"/>
-        <v>0.24853515624639</v>
+        <v>0.2478376116035399</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="K89">
         <f t="shared" si="2"/>
-        <v>1592.1111111111111</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L89" t="s">
         <v>10</v>
@@ -9695,7 +9695,7 @@
         <v>12</v>
       </c>
       <c r="B90">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -9713,7 +9713,7 @@
         <v>15</v>
       </c>
       <c r="H90">
-        <v>2.5585937500001099E-2</v>
+        <v>2.5599888392858199E-2</v>
       </c>
       <c r="I90" t="s">
         <v>16</v>
@@ -9721,15 +9721,15 @@
       <c r="J90">
         <v>2047</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="2">
         <f t="shared" si="2"/>
-        <v>1637.6</v>
+        <v>1842.3</v>
       </c>
       <c r="L90" t="s">
         <v>12</v>
       </c>
       <c r="M90">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="N90" t="s">
         <v>13</v>
@@ -9747,7 +9747,7 @@
         <v>17</v>
       </c>
       <c r="S90">
-        <v>0.27102399553568501</v>
+        <v>0.27426060267854702</v>
       </c>
       <c r="T90" t="s">
         <v>18</v>
@@ -9757,7 +9757,7 @@
       </c>
       <c r="V90">
         <f t="shared" si="3"/>
-        <v>0.24543805803568391</v>
+        <v>0.24866071428568881</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
@@ -9765,7 +9765,7 @@
         <v>12</v>
       </c>
       <c r="B91">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -9783,7 +9783,7 @@
         <v>15</v>
       </c>
       <c r="H91">
-        <v>0.27103794642854201</v>
+        <v>0.27427455357140401</v>
       </c>
       <c r="I91" t="s">
         <v>16</v>
@@ -9793,13 +9793,13 @@
       </c>
       <c r="K91">
         <f t="shared" si="2"/>
-        <v>1592.1111111111111</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L91" t="s">
         <v>12</v>
       </c>
       <c r="M91">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="N91" t="s">
         <v>13</v>
@@ -9817,7 +9817,7 @@
         <v>17</v>
       </c>
       <c r="S91">
-        <v>0.51934988839316698</v>
+        <v>0.52336774553602905</v>
       </c>
       <c r="T91" t="s">
         <v>18</v>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="V91">
         <f t="shared" si="3"/>
-        <v>0.24831194196462497</v>
+        <v>0.24909319196462504</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
@@ -9835,7 +9835,7 @@
         <v>12</v>
       </c>
       <c r="B92">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -9853,7 +9853,7 @@
         <v>15</v>
       </c>
       <c r="H92">
-        <v>0.51936383928602403</v>
+        <v>0.52338169642888699</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
@@ -9863,13 +9863,13 @@
       </c>
       <c r="K92">
         <f t="shared" si="2"/>
-        <v>1592.1111111111111</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L92" t="s">
         <v>12</v>
       </c>
       <c r="M92">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="N92" t="s">
         <v>13</v>
@@ -9887,7 +9887,7 @@
         <v>17</v>
       </c>
       <c r="S92">
-        <v>0.76801060267921994</v>
+        <v>0.77509765625065896</v>
       </c>
       <c r="T92" t="s">
         <v>18</v>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="V92">
         <f t="shared" si="3"/>
-        <v>0.24864676339319591</v>
+        <v>0.25171595982177197</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
@@ -9905,7 +9905,7 @@
         <v>12</v>
       </c>
       <c r="B93">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -9923,7 +9923,7 @@
         <v>15</v>
       </c>
       <c r="H93">
-        <v>0.76802455357207799</v>
+        <v>0.77511160714351601</v>
       </c>
       <c r="I93" t="s">
         <v>16</v>
@@ -9933,13 +9933,13 @@
       </c>
       <c r="K93">
         <f t="shared" si="2"/>
-        <v>1592.1111111111111</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L93" t="s">
         <v>12</v>
       </c>
       <c r="M93">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N93" t="s">
         <v>13</v>
@@ -9957,7 +9957,7 @@
         <v>17</v>
       </c>
       <c r="S93">
-        <v>1.0217912946438501</v>
+        <v>1.02329799107242</v>
       </c>
       <c r="T93" t="s">
         <v>18</v>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="3"/>
-        <v>0.25376674107177211</v>
+        <v>0.24818638392890402</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
@@ -9975,13 +9975,13 @@
         <v>12</v>
       </c>
       <c r="B94">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -9993,13 +9993,13 @@
         <v>15</v>
       </c>
       <c r="H94">
-        <v>1.0218052455367099</v>
+        <v>1.0234375000009901</v>
       </c>
       <c r="I94" t="s">
         <v>16</v>
       </c>
       <c r="J94">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <f t="shared" si="2"/>
@@ -10009,13 +10009,13 @@
         <v>12</v>
       </c>
       <c r="M94">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="N94" t="s">
         <v>13</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" t="s">
         <v>14</v>
@@ -10027,17 +10027,17 @@
         <v>17</v>
       </c>
       <c r="S94">
-        <v>1.27140066964419</v>
+        <v>1.04405691964388</v>
       </c>
       <c r="T94" t="s">
         <v>18</v>
       </c>
       <c r="U94">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="V94">
         <f t="shared" si="3"/>
-        <v>0.24959542410748004</v>
+        <v>2.0619419642889936E-2</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
@@ -10045,13 +10045,13 @@
         <v>12</v>
       </c>
       <c r="B95">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -10063,29 +10063,29 @@
         <v>15</v>
       </c>
       <c r="H95">
-        <v>1.27154017857276</v>
+        <v>1.0440708705367401</v>
       </c>
       <c r="I95" t="s">
         <v>16</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>1592.1111111111111</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L95" t="s">
         <v>12</v>
       </c>
       <c r="M95">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="N95" t="s">
         <v>13</v>
       </c>
       <c r="O95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P95" t="s">
         <v>14</v>
@@ -10097,17 +10097,17 @@
         <v>17</v>
       </c>
       <c r="S95">
-        <v>1.3170479910728199</v>
+        <v>1.2957868303585101</v>
       </c>
       <c r="T95" t="s">
         <v>18</v>
       </c>
       <c r="U95">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V95">
         <f t="shared" si="3"/>
-        <v>4.5507812500059863E-2</v>
+        <v>0.25171595982176997</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
@@ -10115,13 +10115,13 @@
         <v>12</v>
       </c>
       <c r="B96">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -10133,13 +10133,13 @@
         <v>15</v>
       </c>
       <c r="H96">
-        <v>1.31718750000139</v>
+        <v>1.2958007812513599</v>
       </c>
       <c r="I96" t="s">
         <v>16</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K96">
         <f t="shared" si="2"/>
@@ -10149,13 +10149,13 @@
         <v>12</v>
       </c>
       <c r="M96">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="N96" t="s">
         <v>13</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="s">
         <v>14</v>
@@ -10167,17 +10167,17 @@
         <v>17</v>
       </c>
       <c r="S96">
-        <v>1.3658900669657501</v>
+        <v>1.5517996651802901</v>
       </c>
       <c r="T96" t="s">
         <v>18</v>
       </c>
       <c r="U96">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="V96">
         <f t="shared" si="3"/>
-        <v>4.870256696436015E-2</v>
+        <v>0.25599888392893022</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
@@ -10185,7 +10185,7 @@
         <v>12</v>
       </c>
       <c r="B97">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -10203,7 +10203,7 @@
         <v>15</v>
       </c>
       <c r="H97">
-        <v>1.3659040178585999</v>
+        <v>1.5518136160731399</v>
       </c>
       <c r="I97" t="s">
         <v>16</v>
@@ -10213,13 +10213,13 @@
       </c>
       <c r="K97">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L97" t="s">
         <v>12</v>
       </c>
       <c r="M97">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="N97" t="s">
         <v>13</v>
@@ -10237,7 +10237,7 @@
         <v>17</v>
       </c>
       <c r="S97">
-        <v>1.61215122768037</v>
+        <v>1.8006696428591999</v>
       </c>
       <c r="T97" t="s">
         <v>18</v>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="V97">
         <f t="shared" si="3"/>
-        <v>0.24624720982177006</v>
+        <v>0.24885602678606</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
@@ -10255,7 +10255,7 @@
         <v>12</v>
       </c>
       <c r="B98">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -10273,7 +10273,7 @@
         <v>15</v>
       </c>
       <c r="H98">
-        <v>1.6121651785732201</v>
+        <v>1.80068359375205</v>
       </c>
       <c r="I98" t="s">
         <v>16</v>
@@ -10283,13 +10283,13 @@
       </c>
       <c r="K98">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1819.5555555555557</v>
       </c>
       <c r="L98" t="s">
         <v>12</v>
       </c>
       <c r="M98">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="N98" t="s">
         <v>13</v>
@@ -10307,7 +10307,7 @@
         <v>17</v>
       </c>
       <c r="S98">
-        <v>1.8626953125021399</v>
+        <v>2.0521902901801399</v>
       </c>
       <c r="T98" t="s">
         <v>18</v>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="V98">
         <f t="shared" si="3"/>
-        <v>0.25053013392891987</v>
+        <v>0.25150669642808987</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
@@ -10325,7 +10325,7 @@
         <v>12</v>
       </c>
       <c r="B99">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -10343,7 +10343,7 @@
         <v>15</v>
       </c>
       <c r="H99">
-        <v>1.862709263395</v>
+        <v>2.0522042410729902</v>
       </c>
       <c r="I99" t="s">
         <v>16</v>
@@ -10353,13 +10353,13 @@
       </c>
       <c r="K99">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1592.1111111111111</v>
       </c>
       <c r="L99" t="s">
         <v>12</v>
       </c>
       <c r="M99">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="N99" t="s">
         <v>13</v>
@@ -10377,7 +10377,7 @@
         <v>17</v>
       </c>
       <c r="S99">
-        <v>2.11026785714358</v>
+        <v>2.3118443080334998</v>
       </c>
       <c r="T99" t="s">
         <v>18</v>
@@ -10387,7 +10387,7 @@
       </c>
       <c r="V99">
         <f t="shared" si="3"/>
-        <v>0.24755859374858002</v>
+        <v>0.25964006696050967</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="K100">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1592.1111111111111</v>
       </c>
       <c r="L100" t="s">
         <v>10</v>
@@ -10429,7 +10429,7 @@
         <v>12</v>
       </c>
       <c r="B101">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -10457,13 +10457,13 @@
       </c>
       <c r="K101">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1637.6</v>
       </c>
       <c r="L101" t="s">
         <v>12</v>
       </c>
       <c r="M101">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N101" t="s">
         <v>13</v>
@@ -10481,7 +10481,7 @@
         <v>17</v>
       </c>
       <c r="S101">
-        <v>0.28263113839284398</v>
+        <v>0.27727399553569398</v>
       </c>
       <c r="T101" t="s">
         <v>18</v>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="V101">
         <f t="shared" si="3"/>
-        <v>0.25704520089284288</v>
+        <v>0.25168805803569289</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
@@ -10499,7 +10499,7 @@
         <v>12</v>
       </c>
       <c r="B102">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -10517,7 +10517,7 @@
         <v>15</v>
       </c>
       <c r="H102">
-        <v>0.28264508928570098</v>
+        <v>0.27728794642855098</v>
       </c>
       <c r="I102" t="s">
         <v>16</v>
@@ -10527,13 +10527,13 @@
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1592.1111111111111</v>
       </c>
       <c r="L102" t="s">
         <v>12</v>
       </c>
       <c r="M102">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="N102" t="s">
         <v>13</v>
@@ -10551,7 +10551,7 @@
         <v>17</v>
       </c>
       <c r="S102">
-        <v>0.53419363839318701</v>
+        <v>0.53575613839318903</v>
       </c>
       <c r="T102" t="s">
         <v>18</v>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="V102">
         <f t="shared" si="3"/>
-        <v>0.25154854910748603</v>
+        <v>0.25846819196463805</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
@@ -10569,13 +10569,13 @@
         <v>12</v>
       </c>
       <c r="B103">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -10587,29 +10587,29 @@
         <v>15</v>
       </c>
       <c r="H103">
-        <v>0.53420758928604395</v>
+        <v>0.53589564732176098</v>
       </c>
       <c r="I103" t="s">
         <v>16</v>
       </c>
       <c r="J103">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1535.25</v>
       </c>
       <c r="L103" t="s">
         <v>12</v>
       </c>
       <c r="M103">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="N103" t="s">
         <v>13</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="s">
         <v>14</v>
@@ -10621,17 +10621,17 @@
         <v>17</v>
       </c>
       <c r="S103">
-        <v>0.78748604910781805</v>
+        <v>0.56254185267893997</v>
       </c>
       <c r="T103" t="s">
         <v>18</v>
       </c>
       <c r="U103">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="V103">
         <f t="shared" si="3"/>
-        <v>0.2532784598217741</v>
+        <v>2.6646205357178987E-2</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
@@ -10639,7 +10639,7 @@
         <v>12</v>
       </c>
       <c r="B104">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
@@ -10657,7 +10657,7 @@
         <v>15</v>
       </c>
       <c r="H104">
-        <v>0.78750000000067599</v>
+        <v>0.56255580357179702</v>
       </c>
       <c r="I104" t="s">
         <v>16</v>
@@ -10667,13 +10667,13 @@
       </c>
       <c r="K104">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1754.5714285714287</v>
       </c>
       <c r="L104" t="s">
         <v>12</v>
       </c>
       <c r="M104">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="N104" t="s">
         <v>13</v>
@@ -10691,7 +10691,7 @@
         <v>17</v>
       </c>
       <c r="S104">
-        <v>1.0509765625010301</v>
+        <v>0.81946149553643299</v>
       </c>
       <c r="T104" t="s">
         <v>18</v>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="V104">
         <f t="shared" si="3"/>
-        <v>0.26347656250035412</v>
+        <v>0.25690569196463597</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
@@ -10709,7 +10709,7 @@
         <v>12</v>
       </c>
       <c r="B105">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -10727,7 +10727,7 @@
         <v>15</v>
       </c>
       <c r="H105">
-        <v>1.0509905133938899</v>
+        <v>0.81947544642929104</v>
       </c>
       <c r="I105" t="s">
         <v>16</v>
@@ -10737,13 +10737,13 @@
       </c>
       <c r="K105">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1705.8333333333333</v>
       </c>
       <c r="L105" t="s">
         <v>12</v>
       </c>
       <c r="M105">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="N105" t="s">
         <v>13</v>
@@ -10761,7 +10761,7 @@
         <v>17</v>
       </c>
       <c r="S105">
-        <v>1.3031947544656599</v>
+        <v>1.07971540178678</v>
       </c>
       <c r="T105" t="s">
         <v>18</v>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="V105">
         <f t="shared" si="3"/>
-        <v>0.25220424107176997</v>
+        <v>0.26023995535748901</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
@@ -10779,7 +10779,7 @@
         <v>12</v>
       </c>
       <c r="B106">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
@@ -10797,7 +10797,7 @@
         <v>15</v>
       </c>
       <c r="H106">
-        <v>1.30320870535852</v>
+        <v>1.0797293526796401</v>
       </c>
       <c r="I106" t="s">
         <v>16</v>
@@ -10807,13 +10807,13 @@
       </c>
       <c r="K106">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1637.6</v>
       </c>
       <c r="L106" t="s">
         <v>12</v>
       </c>
       <c r="M106">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="N106" t="s">
         <v>13</v>
@@ -10831,7 +10831,7 @@
         <v>17</v>
       </c>
       <c r="S106">
-        <v>1.55842633928744</v>
+        <v>1.33941127232285</v>
       </c>
       <c r="T106" t="s">
         <v>18</v>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="V106">
         <f t="shared" si="3"/>
-        <v>0.25521763392892005</v>
+        <v>0.25968191964320986</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
@@ -10849,7 +10849,7 @@
         <v>12</v>
       </c>
       <c r="B107">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
@@ -10867,7 +10867,7 @@
         <v>15</v>
       </c>
       <c r="H107">
-        <v>1.5584402901802901</v>
+        <v>1.33942522321571</v>
       </c>
       <c r="I107" t="s">
         <v>16</v>
@@ -10877,13 +10877,13 @@
       </c>
       <c r="K107">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1535.25</v>
       </c>
       <c r="L107" t="s">
         <v>12</v>
       </c>
       <c r="M107">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="N107" t="s">
         <v>13</v>
@@ -10901,7 +10901,7 @@
         <v>17</v>
       </c>
       <c r="S107">
-        <v>1.82370256696637</v>
+        <v>1.60078125000178</v>
       </c>
       <c r="T107" t="s">
         <v>18</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="V107">
         <f t="shared" si="3"/>
-        <v>0.26526227678607994</v>
+        <v>0.26135602678606995</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
@@ -10919,13 +10919,13 @@
         <v>12</v>
       </c>
       <c r="B108">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
@@ -10937,29 +10937,29 @@
         <v>15</v>
       </c>
       <c r="H108">
-        <v>1.8237165178592301</v>
+        <v>1.60092075893035</v>
       </c>
       <c r="I108" t="s">
         <v>16</v>
       </c>
       <c r="J108">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <f t="shared" si="2"/>
-        <v>2047</v>
+        <v>1364.6666666666667</v>
       </c>
       <c r="L108" t="s">
         <v>12</v>
       </c>
       <c r="M108">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="N108" t="s">
         <v>13</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="s">
         <v>14</v>
@@ -10971,17 +10971,17 @@
         <v>17</v>
       </c>
       <c r="S108">
-        <v>2.09426618303667</v>
+        <v>1.6569196428590001</v>
       </c>
       <c r="T108" t="s">
         <v>18</v>
       </c>
       <c r="U108">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="V108">
         <f t="shared" si="3"/>
-        <v>0.27054966517743995</v>
+        <v>5.5998883928650045E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
@@ -10989,7 +10989,7 @@
         <v>12</v>
       </c>
       <c r="B109">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -11007,7 +11007,7 @@
         <v>15</v>
       </c>
       <c r="H109">
-        <v>2.0942801339295198</v>
+        <v>1.6569335937518599</v>
       </c>
       <c r="I109" t="s">
         <v>16</v>
@@ -11023,7 +11023,7 @@
         <v>12</v>
       </c>
       <c r="M109">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="N109" t="s">
         <v>13</v>
@@ -11041,7 +11041,7 @@
         <v>17</v>
       </c>
       <c r="S109">
-        <v>2.3520368303543502</v>
+        <v>1.91270926339506</v>
       </c>
       <c r="T109" t="s">
         <v>18</v>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="V109">
         <f t="shared" si="3"/>
-        <v>0.25775669642483034</v>
+        <v>0.25577566964320009</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
@@ -11059,7 +11059,7 @@
         <v>12</v>
       </c>
       <c r="B110">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
@@ -11077,7 +11077,7 @@
         <v>15</v>
       </c>
       <c r="H110">
-        <v>2.3520507812472</v>
+        <v>1.91272321428792</v>
       </c>
       <c r="I110" t="s">
         <v>16</v>
@@ -11093,7 +11093,7 @@
         <v>12</v>
       </c>
       <c r="M110">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="N110" t="s">
         <v>13</v>
@@ -11111,7 +11111,7 @@
         <v>17</v>
       </c>
       <c r="S110">
-        <v>2.60817522320776</v>
+        <v>2.1744140624997899</v>
       </c>
       <c r="T110" t="s">
         <v>18</v>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="V110">
         <f t="shared" si="3"/>
-        <v>0.25612444196055995</v>
+        <v>0.26169084821186983</v>
       </c>
     </row>
   </sheetData>
@@ -11170,31 +11170,31 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>0.24303152901742506</v>
+        <v>0.24276506696385888</v>
       </c>
       <c r="C2" s="1">
-        <v>0.24663783481837998</v>
+        <v>0.24546595982176989</v>
       </c>
       <c r="D2" s="1">
-        <v>0.24038783482175707</v>
+        <v>0.23989955357175502</v>
       </c>
       <c r="E2" s="1">
         <v>2047</v>
       </c>
       <c r="G2">
-        <v>0.24236886160710891</v>
+        <v>0.24381975446425291</v>
       </c>
       <c r="H2" s="4">
         <f>AVERAGE(G2:G11)</f>
-        <v>0.24303152901742506</v>
+        <v>0.24276506696385888</v>
       </c>
       <c r="I2" s="4">
         <f>MAX(G2:G11)</f>
-        <v>0.24663783481837998</v>
+        <v>0.24546595982176989</v>
       </c>
       <c r="J2" s="4">
         <f>MIN(G2:G11)</f>
-        <v>0.24038783482175707</v>
+        <v>0.23989955357175502</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -11202,27 +11202,27 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.22517299107125782</v>
+        <v>0.2445856584816879</v>
       </c>
       <c r="C3" s="1">
-        <v>0.25771484374998688</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="D3" s="1">
-        <v>5.1715959821500013E-2</v>
+        <v>0.23934151785746999</v>
       </c>
       <c r="E3" s="1">
-        <v>1842</v>
+        <v>2047</v>
       </c>
       <c r="G3">
-        <v>0.24345703125033202</v>
+        <v>0.23989955357175502</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H66" si="0">AVERAGE(G3:G12)</f>
-        <v>0.21879464285671418</v>
+        <v>0.21838309151743357</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="1">MAX(G3:G12)</f>
-        <v>0.24663783481837998</v>
+        <v>0.24546595982176989</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J66" si="2">MIN(G3:G12)</f>
@@ -11234,27 +11234,27 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2467187499995161</v>
+        <v>0.24550223214238978</v>
       </c>
       <c r="C4" s="1">
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2428989955360501</v>
+        <v>0.2415597098217499</v>
       </c>
       <c r="E4" s="1">
         <v>2047</v>
       </c>
       <c r="G4">
-        <v>0.24301060267890306</v>
+        <v>0.24317801339318901</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>0.22022042410667969</v>
+        <v>0.21851283482096875</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.24546595982176989</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="2"/>
@@ -11266,27 +11266,27 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.2252539062498288</v>
+        <v>0.22579380580338979</v>
       </c>
       <c r="C5" s="1">
-        <v>0.25986328125035507</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="D5" s="1">
-        <v>3.2631138392900105E-2</v>
+        <v>4.6805245535779916E-2</v>
       </c>
       <c r="E5" s="1">
         <v>1842</v>
       </c>
       <c r="G5">
-        <v>0.24038783482175707</v>
+        <v>0.242229352678902</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>0.22018694196382244</v>
+        <v>0.21812918526739686</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.24546595982176989</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="2"/>
@@ -11298,27 +11298,27 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.24590262276738581</v>
+        <v>0.24562499999953102</v>
       </c>
       <c r="C6" s="1">
-        <v>0.25488281249656985</v>
+        <v>0.2503487723180402</v>
       </c>
       <c r="D6" s="1">
-        <v>0.24167131696461597</v>
+        <v>0.24090401785747106</v>
       </c>
       <c r="E6" s="1">
         <v>2047</v>
       </c>
       <c r="G6">
-        <v>0.24178292410746993</v>
+        <v>0.24278738839317993</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>0.22013671874953666</v>
+        <v>0.21827427455311127</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.24546595982176989</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="2"/>
@@ -11330,27 +11330,27 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>0.22240373883915457</v>
+        <v>0.24733677455307762</v>
       </c>
       <c r="C7">
-        <v>0.25061383928569081</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="D7">
-        <v>1.436941964287608E-2</v>
+        <v>0.24150390625032997</v>
       </c>
       <c r="E7" s="1">
-        <v>1842</v>
+        <v>2047</v>
       </c>
       <c r="G7">
-        <v>0.24412667410747013</v>
+        <v>0.24167131696462008</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>0.2205440848209658</v>
+        <v>0.21802873883882593</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.24546595982176989</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="2"/>
@@ -11362,27 +11362,27 @@
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>0.24681361607094079</v>
+        <v>0.24883231026734079</v>
       </c>
       <c r="C8">
-        <v>0.252943638393203</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="D8">
-        <v>0.24274553571461704</v>
+        <v>0.24539620535747009</v>
       </c>
       <c r="E8" s="1">
         <v>2047</v>
       </c>
       <c r="G8">
-        <v>0.24222935267890011</v>
+        <v>0.24546595982176989</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>0.2203878348209658</v>
+        <v>0.21905552455311184</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="2"/>
@@ -11394,27 +11394,27 @@
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>0.24771344866021577</v>
+        <v>0.22617327008910068</v>
       </c>
       <c r="C9">
-        <v>0.25272042410748985</v>
+        <v>0.25265066964319993</v>
       </c>
       <c r="D9">
-        <v>0.24474051339319097</v>
+        <v>2.526506696431996E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>2047</v>
+        <v>1842</v>
       </c>
       <c r="G9">
-        <v>0.24267578125032996</v>
+        <v>0.24450334821461994</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>0.22029854910667979</v>
+        <v>0.21935686383882586</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="2"/>
@@ -11426,27 +11426,27 @@
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>0.20843052455364469</v>
+        <v>0.22859933035692395</v>
       </c>
       <c r="C10">
-        <v>0.25376674107177211</v>
+        <v>0.25964006696050967</v>
       </c>
       <c r="D10">
-        <v>4.5507812500059863E-2</v>
+        <v>2.0619419642889936E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>1637</v>
+        <v>1842</v>
       </c>
       <c r="G10">
-        <v>0.24663783481837998</v>
+        <v>0.24271763392553014</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>0.20120256696379676</v>
+        <v>0.21994838169596892</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="2"/>
@@ -11458,27 +11458,27 @@
         <v>0.49</v>
       </c>
       <c r="B11">
-        <v>0.25824637276720575</v>
+        <v>0.2148451450892635</v>
       </c>
       <c r="C11">
-        <v>0.27054966517743995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="D11">
-        <v>0.25154854910748603</v>
+        <v>2.6646205357178987E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>2047</v>
+        <v>1637</v>
       </c>
       <c r="G11">
-        <v>0.24363839285359967</v>
+        <v>0.24137834821076964</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>0.20091099330342077</v>
+        <v>0.21993303571416289</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="2"/>
@@ -11491,11 +11491,11 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>0.20080915178589781</v>
+        <v>0.22033482142846891</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="2"/>
@@ -11504,19 +11504,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G13">
-        <v>0.25771484374998688</v>
+        <v>0.24119698660710692</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>0.22517299107125782</v>
+        <v>0.2445856584816879</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="1"/>
-        <v>0.25771484374998688</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="2"/>
-        <v>5.1715959821500013E-2</v>
+        <v>0.23934151785746999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -11534,15 +11534,15 @@
       </c>
       <c r="E14" s="1"/>
       <c r="G14">
-        <v>0.24267578125033101</v>
+        <v>0.23934151785746999</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>0.19940150669625914</v>
+        <v>0.22046595982097719</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>0.24585658482176098</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="2"/>
@@ -11555,27 +11555,27 @@
       </c>
       <c r="B15" s="1">
         <f>E2/B2</f>
-        <v>8422.7754657019523</v>
+        <v>8432.0204121655715</v>
       </c>
       <c r="C15" s="1">
         <f>E2/C2</f>
-        <v>8299.6187568195965</v>
+        <v>8339.2418300537647</v>
       </c>
       <c r="D15" s="1">
         <f>E2/D2</f>
-        <v>8515.4059543729036</v>
+        <v>8532.7378459990887</v>
       </c>
       <c r="E15" s="1"/>
       <c r="G15">
-        <v>0.23988560267889902</v>
+        <v>0.24368024553604595</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>0.19988560267836622</v>
+        <v>0.22071289062451238</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="1"/>
-        <v>0.24751674107140181</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="2"/>
@@ -11588,27 +11588,27 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ref="B16:B24" si="3">E3/B3</f>
-        <v>8180.3771901625814</v>
+        <v>8369.256041859293</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ref="C16:C24" si="4">E3/C3</f>
-        <v>7147.4346343315501</v>
+        <v>8124.9770197576918</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ref="D16:D24" si="5">E3/D3</f>
-        <v>35617.631507908714</v>
+        <v>8552.6323152133045</v>
       </c>
       <c r="E16" s="1"/>
       <c r="G16">
-        <v>0.24585658482176098</v>
+        <v>0.24033203125032698</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>0.20082310267836742</v>
+        <v>0.22075195312451262</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="1"/>
-        <v>0.24926060267891104</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="2"/>
@@ -11621,27 +11621,27 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="3"/>
-        <v>8296.8967701239362</v>
+        <v>8338.0097286152268</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
-        <v>8157.5004169567101</v>
+        <v>8188.9139412768091</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="5"/>
-        <v>8427.3712021019546</v>
+        <v>8474.0952930871972</v>
       </c>
       <c r="E17" s="1"/>
       <c r="G17">
-        <v>0.24256417410747</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="0"/>
-        <v>0.20078404017836773</v>
+        <v>0.22110909598165601</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="1"/>
-        <v>0.24926060267891104</v>
+        <v>0.25193917410747912</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="2"/>
@@ -11654,27 +11654,27 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="3"/>
-        <v>8177.4386543025821</v>
+        <v>8157.8854364318731</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
-        <v>7088.3427282879475</v>
+        <v>7218.5533869017509</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="5"/>
-        <v>56449.14920898938</v>
+        <v>39354.563338245862</v>
       </c>
       <c r="E18" s="1"/>
       <c r="G18">
-        <v>0.2413364955360402</v>
+        <v>0.24847935267890997</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="0"/>
-        <v>0.20099609374979616</v>
+        <v>0.22078822544594176</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="1"/>
-        <v>0.24926060267891104</v>
+        <v>0.25041852678605014</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="2"/>
@@ -11687,27 +11687,27 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="3"/>
-        <v>8324.4333751428967</v>
+        <v>8333.8422392016619</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
-        <v>8031.141762560188</v>
+        <v>8176.5929229303938</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="5"/>
-        <v>8470.181839161778</v>
+        <v>8497.1600648482799</v>
       </c>
       <c r="E19" s="1"/>
       <c r="G19">
-        <v>5.1715959821500013E-2</v>
+        <v>0.25041852678605014</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="0"/>
-        <v>0.20115234374979715</v>
+        <v>0.22046456473165482</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="1"/>
-        <v>0.24926060267891104</v>
+        <v>0.25041852678605014</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="2"/>
@@ -11720,27 +11720,27 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="3"/>
-        <v>8282.2348653597037</v>
+        <v>8276.1651747856886</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
-        <v>7349.953239813648</v>
+        <v>7874.2599550359128</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="5"/>
-        <v>128188.89320371456</v>
+        <v>8476.0533764542506</v>
       </c>
       <c r="E20" s="1"/>
       <c r="G20">
-        <v>0.24372209821461999</v>
+        <v>0.24256417410747</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="0"/>
-        <v>0.22107421874982411</v>
+        <v>0.22041992187451279</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="1"/>
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="2"/>
@@ -11753,27 +11753,27 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="3"/>
-        <v>8293.7077483263238</v>
+        <v>8226.4236416916337</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
-        <v>8092.7119298328489</v>
+        <v>7930.4377905084257</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="5"/>
-        <v>8432.6988505632035</v>
+        <v>8341.6122796932541</v>
       </c>
       <c r="E21" s="1"/>
       <c r="G21">
-        <v>0.24261997767836996</v>
+        <v>0.24539620535383011</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="0"/>
-        <v>0.22110351562482414</v>
+        <v>0.22031947544594077</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="1"/>
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="2"/>
@@ -11786,27 +11786,27 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="3"/>
-        <v>8263.5804033709701</v>
+        <v>8144.1984690513891</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
-        <v>8099.8597846976836</v>
+        <v>7290.6990612822119</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="5"/>
-        <v>8363.9605540557404</v>
+        <v>72906.990612822221</v>
       </c>
       <c r="E22" s="1"/>
       <c r="G22">
-        <v>0.24363839285360012</v>
+        <v>0.24250837053218977</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="0"/>
-        <v>0.22128766741059214</v>
+        <v>0.22037109374987676</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="1"/>
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="2"/>
@@ -11819,15 +11819,15 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="3"/>
-        <v>7853.9359986050313</v>
+        <v>8057.7663859469321</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
-        <v>6450.8059373194692</v>
+        <v>7094.4366236054066</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="5"/>
-        <v>35971.845493514913</v>
+        <v>89333.261163592702</v>
       </c>
       <c r="E23" s="1"/>
       <c r="G23">
@@ -11835,11 +11835,11 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="0"/>
-        <v>0.22177734374987912</v>
+        <v>0.22071149553560679</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="1"/>
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="2"/>
@@ -11852,44 +11852,44 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="3"/>
-        <v>7926.5392116281637</v>
+        <v>7619.4414321992799</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
-        <v>7566.0784819581113</v>
+        <v>6255.4728649687204</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="5"/>
-        <v>8137.5941434085644</v>
+        <v>61434.638743372197</v>
       </c>
       <c r="E24" s="1"/>
       <c r="G24">
-        <v>0.24751674107140181</v>
+        <v>0.24181082589282188</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>0.2467187499995161</v>
+        <v>0.24550223214238978</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="1"/>
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="2"/>
-        <v>0.2428989955360501</v>
+        <v>0.2415597098217499</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G25">
-        <v>0.24926060267891104</v>
+        <v>0.24407087053604803</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="0"/>
-        <v>0.22196707589237591</v>
+        <v>0.22132114955310761</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="1"/>
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="2"/>
@@ -11910,15 +11910,15 @@
         <v>6</v>
       </c>
       <c r="G26">
-        <v>0.245465959821764</v>
+        <v>0.24390345982176109</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="0"/>
-        <v>0.22180385044591069</v>
+        <v>0.2211621093744994</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="1"/>
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="2"/>
@@ -11931,26 +11931,26 @@
       </c>
       <c r="B27" s="1">
         <f>ROUND(B2,6)</f>
-        <v>0.243032</v>
+        <v>0.24276500000000001</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ref="C27:D27" si="6">ROUND(C2,6)</f>
-        <v>0.246638</v>
+        <v>0.24546599999999999</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>0.24038799999999999</v>
+        <v>0.2399</v>
       </c>
       <c r="G27">
-        <v>0.24468470982175405</v>
+        <v>0.24873046875033711</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="0"/>
-        <v>0.22228376116019696</v>
+        <v>0.22109514508878508</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="1"/>
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="2"/>
@@ -11963,26 +11963,26 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ref="B28:D28" si="7">ROUND(B3,6)</f>
-        <v>0.22517300000000001</v>
+        <v>0.244586</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="7"/>
-        <v>0.25771500000000003</v>
+        <v>0.25193900000000002</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>5.1715999999999998E-2</v>
+        <v>0.239342</v>
       </c>
       <c r="G28">
-        <v>0.2428989955360501</v>
+        <v>0.24524274553603997</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="0"/>
-        <v>0.22177036830305424</v>
+        <v>0.22173967633878616</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="1"/>
-        <v>0.25093470982177002</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="2"/>
@@ -11995,26 +11995,26 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ref="B29:D29" si="8">ROUND(B4,6)</f>
-        <v>0.24671899999999999</v>
+        <v>0.245502</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="8"/>
-        <v>0.25093500000000002</v>
+        <v>0.249972</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="8"/>
-        <v>0.242899</v>
+        <v>0.24156</v>
       </c>
       <c r="G29">
-        <v>0.25093470982177002</v>
+        <v>0.24997209821463007</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="0"/>
-        <v>0.22346679687448479</v>
+        <v>0.2216155133923578</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="2"/>
@@ -12027,26 +12027,26 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ref="B30:D30" si="9">ROUND(B5,6)</f>
-        <v>0.22525400000000001</v>
+        <v>0.22579399999999999</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="9"/>
-        <v>0.25986300000000001</v>
+        <v>0.25517600000000001</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="9"/>
-        <v>3.2631E-2</v>
+        <v>4.6804999999999999E-2</v>
       </c>
       <c r="G30">
-        <v>0.24401506696462016</v>
+        <v>0.2415597098217499</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="0"/>
-        <v>0.22270786830305575</v>
+        <v>0.20129882812447281</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="2"/>
@@ -12059,26 +12059,26 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ref="B31:D31" si="10">ROUND(B6,6)</f>
-        <v>0.24590300000000001</v>
+        <v>0.24562500000000001</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="10"/>
-        <v>0.25488300000000003</v>
+        <v>0.25034899999999999</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="10"/>
-        <v>0.241671</v>
+        <v>0.24090400000000001</v>
       </c>
       <c r="G31">
-        <v>0.24446149553605001</v>
+        <v>0.24591238839318996</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="0"/>
-        <v>0.22261858258876971</v>
+        <v>0.20174525669590276</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="2"/>
@@ -12091,26 +12091,26 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ref="B32:D32" si="11">ROUND(B7,6)</f>
-        <v>0.22240399999999999</v>
+        <v>0.247337</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="11"/>
-        <v>0.250614</v>
+        <v>0.259961</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="11"/>
-        <v>1.4369E-2</v>
+        <v>0.241504</v>
       </c>
       <c r="G32">
-        <v>0.24853515624646993</v>
+        <v>0.24591238838949003</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>0.22283063616019874</v>
+        <v>0.20153320312447381</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="2"/>
@@ -12123,26 +12123,26 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ref="B33:D33" si="12">ROUND(B8,6)</f>
-        <v>0.24681400000000001</v>
+        <v>0.248832</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="12"/>
-        <v>0.252944</v>
+        <v>0.25811899999999999</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="12"/>
-        <v>0.24274599999999999</v>
+        <v>0.245396</v>
       </c>
       <c r="G33">
-        <v>0.24941406249636966</v>
+        <v>0.24790736606782993</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="0"/>
-        <v>0.20124023437484176</v>
+        <v>0.20143275669627175</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="2"/>
@@ -12155,26 +12155,26 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ref="B34:D34" si="13">ROUND(B9,6)</f>
-        <v>0.24771299999999999</v>
+        <v>0.22617300000000001</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="13"/>
-        <v>0.25272</v>
+        <v>0.25265100000000001</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="13"/>
-        <v>0.24474099999999999</v>
+        <v>2.5264999999999999E-2</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="0"/>
-        <v>0.2010226004466098</v>
+        <v>0.20109793526803479</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="2"/>
@@ -12187,30 +12187,30 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ref="B35:D35" si="14">ROUND(B10,6)</f>
-        <v>0.20843100000000001</v>
+        <v>0.228599</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="14"/>
-        <v>0.25376700000000002</v>
+        <v>0.25963999999999998</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="14"/>
-        <v>4.5508E-2</v>
+        <v>2.0618999999999998E-2</v>
       </c>
       <c r="G35">
-        <v>0.24762834821425889</v>
+        <v>0.24248046874996593</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>0.2252539062498288</v>
+        <v>0.22579380580338979</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="2"/>
-        <v>3.2631138392900105E-2</v>
+        <v>4.6805245535779916E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -12219,26 +12219,26 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ref="B36:D36" si="15">ROUND(B11,6)</f>
-        <v>0.25824599999999998</v>
+        <v>0.21484500000000001</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="15"/>
-        <v>0.27055000000000001</v>
+        <v>0.26169100000000001</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="15"/>
-        <v>0.25154900000000002</v>
+        <v>2.6646E-2</v>
       </c>
       <c r="G36">
-        <v>0.25026506696462697</v>
+        <v>0.24323381696461793</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="0"/>
-        <v>0.20049107142840289</v>
+        <v>0.20154575892839316</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="2"/>
@@ -12247,15 +12247,15 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G37">
-        <v>0.23955078125032703</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="0"/>
-        <v>0.2001199776783659</v>
+        <v>0.20133649553549918</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.25517578125034801</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="2"/>
@@ -12276,15 +12276,15 @@
         <v>24</v>
       </c>
       <c r="G38">
-        <v>0.25986328125035507</v>
+        <v>0.24400111607175601</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="0"/>
-        <v>0.20033203124979479</v>
+        <v>0.19990931919621149</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="1"/>
-        <v>0.25986328125035507</v>
+        <v>0.24695870535355002</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="2"/>
@@ -12297,26 +12297,26 @@
       </c>
       <c r="B39" s="1">
         <f>FLOOR(B15,1)</f>
-        <v>8422</v>
+        <v>8432</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ref="C39:D39" si="16">FLOOR(C15,1)</f>
-        <v>8299</v>
+        <v>8339</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="16"/>
-        <v>8515</v>
+        <v>8532</v>
       </c>
       <c r="G39">
-        <v>0.24334542410747995</v>
+        <v>4.6805245535779916E-2</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="0"/>
-        <v>0.19865234374979246</v>
+        <v>0.20005022321406937</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="1"/>
-        <v>0.24723772321405013</v>
+        <v>0.24695870535355002</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="2"/>
@@ -12329,26 +12329,26 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ref="B40:D40" si="17">FLOOR(B16,1)</f>
-        <v>8180</v>
+        <v>8369</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="17"/>
-        <v>7147</v>
+        <v>8124</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="17"/>
-        <v>35617</v>
+        <v>8552</v>
       </c>
       <c r="G40">
-        <v>0.2431222098217598</v>
+        <v>0.24602399553604992</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="0"/>
-        <v>0.19880998883907774</v>
+        <v>0.21949776785695288</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="1"/>
-        <v>0.24723772321405013</v>
+        <v>0.24695870535355002</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="2"/>
@@ -12361,26 +12361,26 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ref="B41:D41" si="18">FLOOR(B17,1)</f>
-        <v>8296</v>
+        <v>8338</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="18"/>
-        <v>8157</v>
+        <v>8188</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="18"/>
-        <v>8427</v>
+        <v>8474</v>
       </c>
       <c r="G41">
-        <v>0.24658203125033995</v>
+        <v>0.24379185267890002</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="0"/>
-        <v>0.1989773995533638</v>
+        <v>0.21963169642838101</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="1"/>
-        <v>0.24723772321405013</v>
+        <v>0.24736328125033102</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="2"/>
@@ -12393,26 +12393,26 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ref="B42:D42" si="19">FLOOR(B18,1)</f>
-        <v>8177</v>
+        <v>8157</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="19"/>
-        <v>7088</v>
+        <v>7218</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="19"/>
-        <v>56449</v>
+        <v>39354</v>
       </c>
       <c r="G42">
-        <v>3.2631138392900105E-2</v>
+        <v>0.24490792410746987</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="0"/>
-        <v>0.1986090959819348</v>
+        <v>0.22028320312481098</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="1"/>
-        <v>0.24723772321405013</v>
+        <v>0.25030691964319995</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="2"/>
@@ -12425,26 +12425,26 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ref="B43:D43" si="20">FLOOR(B19,1)</f>
-        <v>8324</v>
+        <v>8333</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="20"/>
-        <v>8031</v>
+        <v>8176</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="20"/>
-        <v>8470</v>
+        <v>8497</v>
       </c>
       <c r="G43">
-        <v>0.24723772321405013</v>
+        <v>0.24455915178545995</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="0"/>
-        <v>0.21969168526767877</v>
+        <v>0.22039481026766899</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="1"/>
-        <v>0.24723772321405013</v>
+        <v>0.25030691964319995</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="2"/>
@@ -12457,26 +12457,26 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ref="B44:D44" si="21">FLOOR(B20,1)</f>
-        <v>8282</v>
+        <v>8276</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="21"/>
-        <v>7349</v>
+        <v>7874</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="21"/>
-        <v>128188</v>
+        <v>8476</v>
       </c>
       <c r="G44">
-        <v>0.24231305803218994</v>
+        <v>0.24695870535355002</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="0"/>
-        <v>0.21990513392845079</v>
+        <v>0.22050781249987103</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="1"/>
-        <v>0.24937220982176989</v>
+        <v>0.25030691964319995</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="2"/>
@@ -12489,26 +12489,26 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ref="B45:D45" si="22">FLOOR(B21,1)</f>
-        <v>8293</v>
+        <v>8226</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="22"/>
-        <v>8092</v>
+        <v>7930</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="22"/>
-        <v>8432</v>
+        <v>8341</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="0"/>
-        <v>0.22116210937488878</v>
+        <v>0.22084681919632004</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.2503487723180402</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="2"/>
@@ -12521,30 +12521,30 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ref="B46:D46" si="23">FLOOR(B22,1)</f>
-        <v>8263</v>
+        <v>8144</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="23"/>
-        <v>8099</v>
+        <v>7290</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="23"/>
-        <v>8363</v>
+        <v>72906</v>
       </c>
       <c r="G46">
-        <v>0.24655412946425692</v>
+        <v>0.24114118303567789</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="0"/>
-        <v>0.24590262276738581</v>
+        <v>0.24562499999953102</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.2503487723180402</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="2"/>
-        <v>0.24167131696461597</v>
+        <v>0.24090401785747106</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -12553,26 +12553,26 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ref="B47:D47" si="24">FLOOR(B23,1)</f>
-        <v>7853</v>
+        <v>8057</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="24"/>
-        <v>6450</v>
+        <v>7094</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="24"/>
-        <v>35971</v>
+        <v>89333</v>
       </c>
       <c r="G47">
-        <v>0.24167131696461597</v>
+        <v>0.24090401785747106</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="0"/>
-        <v>0.22124720982096008</v>
+        <v>0.22151088169596322</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.2503487723180402</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="2"/>
@@ -12585,26 +12585,26 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ref="B48:D48" si="25">FLOOR(B24,1)</f>
-        <v>7926</v>
+        <v>7619</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="25"/>
-        <v>7566</v>
+        <v>6255</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="25"/>
-        <v>8137</v>
+        <v>61434</v>
       </c>
       <c r="G48">
-        <v>0.24306640625033193</v>
+        <v>0.24541015625033502</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="0"/>
-        <v>0.22214146205306759</v>
+        <v>0.22193219866021305</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.2503487723180402</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="2"/>
@@ -12613,15 +12613,15 @@
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G49">
-        <v>0.24492187500033291</v>
+        <v>0.2412806919646151</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="0"/>
-        <v>0.22228097098163907</v>
+        <v>0.22154157366021257</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.2503487723180402</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="2"/>
@@ -12630,15 +12630,15 @@
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G50">
-        <v>0.24479631696462012</v>
+        <v>0.24736328125033102</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="0"/>
-        <v>0.22211216517806748</v>
+        <v>0.22224469866021349</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.2503487723180402</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="2"/>
@@ -12647,15 +12647,15 @@
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G51">
-        <v>0.2428989955360501</v>
+        <v>0.25030691964319995</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="0"/>
-        <v>0.1990694754458931</v>
+        <v>0.22321568080307266</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.25707310267892303</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="2"/>
@@ -12664,15 +12664,15 @@
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G52">
-        <v>0.24345703125033991</v>
+        <v>0.24602399553604992</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="0"/>
-        <v>0.1994154575887496</v>
+        <v>0.22266880580307163</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.25707310267892303</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="2"/>
@@ -12681,15 +12681,15 @@
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G53">
-        <v>0.24937220982176989</v>
+        <v>0.24568917410748004</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="0"/>
-        <v>0.1995940290173206</v>
+        <v>0.22249441964235767</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.25707310267892303</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="2"/>
@@ -12698,15 +12698,15 @@
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G54">
-        <v>0.25488281249656985</v>
+        <v>0.2503487723180402</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="0"/>
-        <v>0.19912527901731961</v>
+        <v>0.22243164062450066</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="1"/>
-        <v>0.25488281249656985</v>
+        <v>0.25707310267892303</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="2"/>
@@ -12715,15 +12715,15 @@
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G55">
-        <v>0.24740513392497032</v>
+        <v>0.24778180803210992</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="0"/>
-        <v>0.19798270089269659</v>
+        <v>0.22172014508915763</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="1"/>
-        <v>0.25061383928569081</v>
+        <v>0.25707310267892303</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="2"/>
@@ -12736,11 +12736,11 @@
       </c>
       <c r="H56" s="3">
         <f t="shared" si="0"/>
-        <v>0.19795200892879658</v>
+        <v>0.22134068080345665</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="1"/>
-        <v>0.25061383928569081</v>
+        <v>0.25707310267892303</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="2"/>
@@ -12749,32 +12749,32 @@
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G57">
-        <v>0.25061383928569081</v>
+        <v>0.2451171874999695</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="0"/>
-        <v>0.22240373883915457</v>
+        <v>0.24733677455307762</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" si="1"/>
-        <v>0.25061383928569081</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="2"/>
-        <v>1.436941964287608E-2</v>
+        <v>0.24150390625032997</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G58">
-        <v>0.24446149553604696</v>
+        <v>0.24150390625032997</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="0"/>
-        <v>0.19734235491058549</v>
+        <v>0.22282505580308065</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="1"/>
-        <v>0.24709821428597012</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="J58" s="3">
         <f t="shared" si="2"/>
@@ -12783,15 +12783,15 @@
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G59">
-        <v>0.24323381696461699</v>
+        <v>0.24831194196462403</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="0"/>
-        <v>0.19725027901769177</v>
+        <v>0.22325753348161617</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="1"/>
-        <v>0.24709821428597012</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="J59" s="3">
         <f t="shared" si="2"/>
@@ -12800,15 +12800,15 @@
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G60">
-        <v>1.436941964287608E-2</v>
+        <v>0.25707310267892303</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="0"/>
-        <v>0.19720145089269178</v>
+        <v>0.22362583705304523</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="1"/>
-        <v>0.24709821428597012</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="2"/>
@@ -12817,15 +12817,15 @@
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G61">
-        <v>0.24635881696461503</v>
+        <v>0.24483816964318983</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="0"/>
-        <v>0.22105887276772446</v>
+        <v>0.22296735491018715</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="1"/>
-        <v>0.252943638393203</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="2"/>
@@ -12834,15 +12834,15 @@
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G62">
-        <v>0.24524274553604997</v>
+        <v>0.24428013392891001</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="0"/>
-        <v>0.22101422991058178</v>
+        <v>0.2233761160709018</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="1"/>
-        <v>0.252943638393203</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="2"/>
@@ -12851,15 +12851,15 @@
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G63">
-        <v>0.24468470982175994</v>
+        <v>0.24506138392890997</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="0"/>
-        <v>0.22110351562486677</v>
+        <v>0.22358398437447277</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="1"/>
-        <v>0.252943638393203</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="2"/>
@@ -12868,15 +12868,15 @@
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G64">
-        <v>0.24345703125033991</v>
+        <v>0.24323381696460999</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="0"/>
-        <v>0.2211188616070098</v>
+        <v>0.22361746651732878</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="1"/>
-        <v>0.252943638393203</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="2"/>
@@ -12885,15 +12885,15 @@
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G65">
-        <v>0.24709821428597012</v>
+        <v>0.24398716517509977</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="0"/>
-        <v>0.22165876116058078</v>
+        <v>0.22407924107090177</v>
       </c>
       <c r="I65" s="3">
         <f t="shared" si="1"/>
-        <v>0.252943638393203</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="J65" s="3">
         <f t="shared" si="2"/>
@@ -12902,15 +12902,15 @@
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G66">
-        <v>0.24451729910357978</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="0"/>
-        <v>0.2216001674105888</v>
+        <v>0.22549246651767979</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="1"/>
-        <v>0.252943638393203</v>
+        <v>0.25996093749620997</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" si="2"/>
@@ -12923,11 +12923,11 @@
       </c>
       <c r="H67" s="3">
         <f t="shared" ref="H67:H110" si="26">AVERAGE(G67:G76)</f>
-        <v>0.22211774553558578</v>
+        <v>0.22420479910698479</v>
       </c>
       <c r="I67" s="3">
         <f t="shared" ref="I67:I110" si="27">MAX(G67:G76)</f>
-        <v>0.252943638393203</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" ref="J67:J110" si="28">MIN(G67:G76)</f>
@@ -12936,32 +12936,32 @@
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G68">
-        <v>0.2435407366071099</v>
+        <v>0.24582868303568489</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="26"/>
-        <v>0.24681361607094079</v>
+        <v>0.24883231026734079</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" si="27"/>
-        <v>0.252943638393203</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="28"/>
-        <v>0.24274553571461704</v>
+        <v>0.24539620535747009</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G69">
-        <v>0.24274553571461704</v>
+        <v>0.25199497767891504</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" si="26"/>
-        <v>0.2224595424102298</v>
+        <v>0.22424944196377233</v>
       </c>
       <c r="I69" s="3">
         <f t="shared" si="27"/>
-        <v>0.252943638393203</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="J69" s="3">
         <f t="shared" si="28"/>
@@ -12970,15 +12970,15 @@
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G70">
-        <v>0.252943638393203</v>
+        <v>0.25048828125034206</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" si="26"/>
-        <v>0.22299386160662257</v>
+        <v>0.22353236607087767</v>
       </c>
       <c r="I70" s="3">
         <f t="shared" si="27"/>
-        <v>0.252943638393203</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="J70" s="3">
         <f t="shared" si="28"/>
@@ -12987,15 +12987,15 @@
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G71">
-        <v>0.24591238839318796</v>
+        <v>0.24892578125033604</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="26"/>
-        <v>0.22217354910662138</v>
+        <v>0.2234319196423061</v>
       </c>
       <c r="I71" s="3">
         <f t="shared" si="27"/>
-        <v>0.24969308035354998</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="J71" s="3">
         <f t="shared" si="28"/>
@@ -13004,15 +13004,15 @@
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G72">
-        <v>0.24613560267889989</v>
+        <v>0.24635881696462003</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="26"/>
-        <v>0.2222907366066221</v>
+        <v>0.22292410714230568</v>
       </c>
       <c r="I72" s="3">
         <f t="shared" si="27"/>
-        <v>0.24969308035354998</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="J72" s="3">
         <f t="shared" si="28"/>
@@ -13021,15 +13021,15 @@
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G73">
-        <v>0.24483816964319005</v>
+        <v>0.24539620535747009</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" si="26"/>
-        <v>0.22218749999947981</v>
+        <v>0.2235532924101637</v>
       </c>
       <c r="I73" s="3">
         <f t="shared" si="27"/>
-        <v>0.24969308035354998</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="J73" s="3">
         <f t="shared" si="28"/>
@@ -13038,15 +13038,15 @@
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G74">
-        <v>0.24885602678605001</v>
+        <v>0.24785156250033991</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="26"/>
-        <v>0.2222656249994798</v>
+        <v>0.22381696428516573</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="27"/>
-        <v>0.24969308035354998</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" si="28"/>
@@ -13055,15 +13055,15 @@
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G75">
-        <v>0.24651227678605014</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" si="26"/>
-        <v>0.22265206473162377</v>
+        <v>0.20155831473156374</v>
       </c>
       <c r="I75" s="3">
         <f t="shared" si="27"/>
-        <v>0.25272042410748985</v>
+        <v>0.25811941964288021</v>
       </c>
       <c r="J75" s="3">
         <f t="shared" si="28"/>
@@ -13072,15 +13072,15 @@
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G76">
-        <v>0.24969308035354998</v>
+        <v>0.24708426338925982</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="26"/>
-        <v>0.22262555803519479</v>
+        <v>0.20083984374945268</v>
       </c>
       <c r="I76" s="3">
         <f t="shared" si="27"/>
-        <v>0.25272042410748985</v>
+        <v>0.25265066964319993</v>
       </c>
       <c r="J76" s="3">
         <f t="shared" si="28"/>
@@ -13089,15 +13089,15 @@
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G77">
-        <v>0.24695870535355002</v>
+        <v>0.24627511160355997</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="26"/>
-        <v>0.22274693080343577</v>
+        <v>0.20083426339270369</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="27"/>
-        <v>0.25272042410748985</v>
+        <v>0.25265066964319993</v>
       </c>
       <c r="J77" s="3">
         <f t="shared" si="28"/>
@@ -13110,11 +13110,11 @@
       </c>
       <c r="H78" s="3">
         <f t="shared" si="26"/>
-        <v>0.22285993303557677</v>
+        <v>0.20138950892874669</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" si="27"/>
-        <v>0.25272042410748985</v>
+        <v>0.25265066964319993</v>
       </c>
       <c r="J78" s="3">
         <f t="shared" si="28"/>
@@ -13123,32 +13123,32 @@
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G79">
-        <v>0.2480887276785449</v>
+        <v>0.2448242187499689</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="26"/>
-        <v>0.24771344866021577</v>
+        <v>0.22617327008910068</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" si="27"/>
-        <v>0.25272042410748985</v>
+        <v>0.25265066964319993</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="28"/>
-        <v>0.24474051339319097</v>
+        <v>2.526506696431996E-2</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G80">
-        <v>0.24474051339319097</v>
+        <v>0.24948381696462602</v>
       </c>
       <c r="H80" s="3">
         <f t="shared" si="26"/>
-        <v>0.22290457589236129</v>
+        <v>0.20169084821410377</v>
       </c>
       <c r="I80" s="3">
         <f t="shared" si="27"/>
-        <v>0.25272042410748985</v>
+        <v>0.25265066964319993</v>
       </c>
       <c r="J80" s="3">
         <f t="shared" si="28"/>
@@ -13157,15 +13157,15 @@
     </row>
     <row r="81" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G81">
-        <v>0.247084263393195</v>
+        <v>0.243847656250332</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" si="26"/>
-        <v>0.22297433035661057</v>
+        <v>0.20160853794621009</v>
       </c>
       <c r="I81" s="3">
         <f t="shared" si="27"/>
-        <v>0.25272042410748985</v>
+        <v>0.25265066964319993</v>
       </c>
       <c r="J81" s="3">
         <f t="shared" si="28"/>
@@ -13174,15 +13174,15 @@
     </row>
     <row r="82" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G82">
-        <v>0.24510323660747702</v>
+        <v>0.25265066964319993</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" si="26"/>
-        <v>0.22309709821375359</v>
+        <v>0.20213309151763931</v>
       </c>
       <c r="I82" s="3">
         <f t="shared" si="27"/>
-        <v>0.25272042410748985</v>
+        <v>0.25265066964319993</v>
       </c>
       <c r="J82" s="3">
         <f t="shared" si="28"/>
@@ -13191,15 +13191,15 @@
     </row>
     <row r="83" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G83">
-        <v>0.24561941964319001</v>
+        <v>0.24803292410749012</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" si="26"/>
-        <v>0.22345145089232546</v>
+        <v>0.20203962053549657</v>
       </c>
       <c r="I83" s="3">
         <f t="shared" si="27"/>
-        <v>0.25272042410748985</v>
+        <v>0.25182756696398978</v>
       </c>
       <c r="J83" s="3">
         <f t="shared" si="28"/>
@@ -13208,15 +13208,15 @@
     </row>
     <row r="84" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G84">
-        <v>0.25272042410748985</v>
+        <v>2.526506696431996E-2</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" si="26"/>
-        <v>0.22426618303518367</v>
+        <v>0.20205496651763796</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" si="27"/>
-        <v>0.25376674107177211</v>
+        <v>0.25182756696398978</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" si="28"/>
@@ -13225,15 +13225,15 @@
     </row>
     <row r="85" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G85">
-        <v>0.24624720982176007</v>
+        <v>0.25093470982177002</v>
       </c>
       <c r="H85" s="3">
         <f t="shared" si="26"/>
-        <v>0.22395368303518265</v>
+        <v>0.20159040178549495</v>
       </c>
       <c r="I85" s="3">
         <f t="shared" si="27"/>
-        <v>0.25376674107177211</v>
+        <v>0.25182756696398978</v>
       </c>
       <c r="J85" s="3">
         <f t="shared" si="28"/>
@@ -13242,15 +13242,15 @@
     </row>
     <row r="86" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G86">
-        <v>0.25090680803595999</v>
+        <v>0.24702845982177002</v>
       </c>
       <c r="H86" s="3">
         <f t="shared" si="26"/>
-        <v>0.20387974330301267</v>
+        <v>0.20166852678549496</v>
       </c>
       <c r="I86" s="3">
         <f t="shared" si="27"/>
-        <v>0.25376674107177211</v>
+        <v>0.25182756696398978</v>
       </c>
       <c r="J86" s="3">
         <f t="shared" si="28"/>
@@ -13259,15 +13259,15 @@
     </row>
     <row r="87" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G87">
-        <v>0.24808872767495993</v>
+        <v>0.25182756696398978</v>
       </c>
       <c r="H87" s="3">
         <f t="shared" si="26"/>
-        <v>0.18365931919585268</v>
+        <v>0.20256556919621094</v>
       </c>
       <c r="I87" s="3">
         <f t="shared" si="27"/>
-        <v>0.25376674107177211</v>
+        <v>0.25599888392893022</v>
       </c>
       <c r="J87" s="3">
         <f t="shared" si="28"/>
@@ -13276,15 +13276,15 @@
     </row>
     <row r="88" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G88">
-        <v>0.24853515624639</v>
+        <v>0.2478376116035399</v>
       </c>
       <c r="H88" s="3">
         <f t="shared" si="26"/>
-        <v>0.18347516741053368</v>
+        <v>0.20226841517841798</v>
       </c>
       <c r="I88" s="3">
         <f t="shared" si="27"/>
-        <v>0.25376674107177211</v>
+        <v>0.25599888392893022</v>
       </c>
       <c r="J88" s="3">
         <f t="shared" si="28"/>
@@ -13297,11 +13297,11 @@
       </c>
       <c r="H89" s="3">
         <f t="shared" si="26"/>
-        <v>0.18367466517878667</v>
+        <v>0.20263532366087297</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="27"/>
-        <v>0.25376674107177211</v>
+        <v>0.25599888392893022</v>
       </c>
       <c r="J89" s="3">
         <f t="shared" si="28"/>
@@ -13310,32 +13310,32 @@
     </row>
     <row r="90" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G90">
-        <v>0.24543805803568391</v>
+        <v>0.24866071428568881</v>
       </c>
       <c r="H90" s="2">
         <f t="shared" si="26"/>
-        <v>0.20843052455364469</v>
+        <v>0.22859933035692395</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" si="27"/>
-        <v>0.25376674107177211</v>
+        <v>0.25964006696050967</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="28"/>
-        <v>4.5507812500059863E-2</v>
+        <v>2.0619419642889936E-2</v>
       </c>
     </row>
     <row r="91" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G91">
-        <v>0.24831194196462497</v>
+        <v>0.24909319196462504</v>
       </c>
       <c r="H91" s="3">
         <f t="shared" si="26"/>
-        <v>0.18388671875007628</v>
+        <v>0.20373325892835509</v>
       </c>
       <c r="I91" s="3">
         <f t="shared" si="27"/>
-        <v>0.25376674107177211</v>
+        <v>0.25964006696050967</v>
       </c>
       <c r="J91" s="3">
         <f t="shared" si="28"/>
@@ -13344,15 +13344,15 @@
     </row>
     <row r="92" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G92">
-        <v>0.24864676339319591</v>
+        <v>0.25171595982177197</v>
       </c>
       <c r="H92" s="3">
         <f t="shared" si="26"/>
-        <v>0.18476004464289808</v>
+        <v>0.20399274553546184</v>
       </c>
       <c r="I92" s="3">
         <f t="shared" si="27"/>
-        <v>0.25704520089284288</v>
+        <v>0.25964006696050967</v>
       </c>
       <c r="J92" s="3">
         <f t="shared" si="28"/>
@@ -13361,15 +13361,15 @@
     </row>
     <row r="93" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G93">
-        <v>0.25376674107177211</v>
+        <v>0.24818638392890402</v>
       </c>
       <c r="H93" s="3">
         <f t="shared" si="26"/>
-        <v>0.18505022321432713</v>
+        <v>0.20466796874974844</v>
       </c>
       <c r="I93" s="3">
         <f t="shared" si="27"/>
-        <v>0.25704520089284288</v>
+        <v>0.25964006696050967</v>
       </c>
       <c r="J93" s="3">
         <f t="shared" si="28"/>
@@ -13378,15 +13378,15 @@
     </row>
     <row r="94" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G94">
-        <v>0.24959542410748004</v>
+        <v>2.0619419642889936E-2</v>
       </c>
       <c r="H94" s="3">
         <f t="shared" si="26"/>
-        <v>0.18500139508932731</v>
+        <v>0.18251395089257597</v>
       </c>
       <c r="I94" s="3">
         <f t="shared" si="27"/>
-        <v>0.25704520089284288</v>
+        <v>0.25964006696050967</v>
       </c>
       <c r="J94" s="3">
         <f t="shared" si="28"/>
@@ -13395,15 +13395,15 @@
     </row>
     <row r="95" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G95">
-        <v>4.5507812500059863E-2</v>
+        <v>0.25171595982176997</v>
       </c>
       <c r="H95" s="3">
         <f t="shared" si="26"/>
-        <v>0.18638950892861472</v>
+        <v>0.20614257812475056</v>
       </c>
       <c r="I95" s="3">
         <f t="shared" si="27"/>
-        <v>0.26347656250035412</v>
+        <v>0.25964006696050967</v>
       </c>
       <c r="J95" s="3">
         <f t="shared" si="28"/>
@@ -13412,15 +13412,15 @@
     </row>
     <row r="96" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G96">
-        <v>4.870256696436015E-2</v>
+        <v>0.25599888392893022</v>
       </c>
       <c r="H96" s="3">
         <f t="shared" si="26"/>
-        <v>0.20705915178578574</v>
+        <v>0.20699497767832248</v>
       </c>
       <c r="I96" s="3">
         <f t="shared" si="27"/>
-        <v>0.26347656250035412</v>
+        <v>0.26023995535748901</v>
       </c>
       <c r="J96" s="3">
         <f t="shared" si="28"/>
@@ -13429,15 +13429,15 @@
     </row>
     <row r="97" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G97">
-        <v>0.24624720982177006</v>
+        <v>0.24885602678606</v>
       </c>
       <c r="H97" s="3">
         <f t="shared" si="26"/>
-        <v>0.2277106584822417</v>
+        <v>0.20736328124975043</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="27"/>
-        <v>0.26347656250035412</v>
+        <v>0.26023995535748901</v>
       </c>
       <c r="J97" s="3">
         <f t="shared" si="28"/>
@@ -13446,15 +13446,15 @@
     </row>
     <row r="98" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G98">
-        <v>0.25053013392891987</v>
+        <v>0.25150669642808987</v>
       </c>
       <c r="H98" s="3">
         <f t="shared" si="26"/>
-        <v>0.22961216517867272</v>
+        <v>0.20861328124975143</v>
       </c>
       <c r="I98" s="3">
         <f t="shared" si="27"/>
-        <v>0.26526227678607994</v>
+        <v>0.26135602678606995</v>
       </c>
       <c r="J98" s="3">
         <f t="shared" si="28"/>
@@ -13463,15 +13463,15 @@
     </row>
     <row r="99" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G99">
-        <v>0.24755859374858002</v>
+        <v>0.25964006696050967</v>
       </c>
       <c r="H99" s="3">
         <f t="shared" si="26"/>
-        <v>0.23161411830352474</v>
+        <v>0.18906249999980745</v>
       </c>
       <c r="I99" s="3">
         <f t="shared" si="27"/>
-        <v>0.27054966517743995</v>
+        <v>0.26135602678606995</v>
       </c>
       <c r="J99" s="3">
         <f t="shared" si="28"/>
@@ -13484,11 +13484,11 @@
       </c>
       <c r="H100" s="3">
         <f t="shared" si="26"/>
-        <v>0.23263392857114976</v>
+        <v>0.18867606026807648</v>
       </c>
       <c r="I100" s="3">
         <f t="shared" si="27"/>
-        <v>0.27054966517743995</v>
+        <v>0.26135602678606995</v>
       </c>
       <c r="J100" s="3">
         <f t="shared" si="28"/>
@@ -13497,172 +13497,172 @@
     </row>
     <row r="101" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G101">
-        <v>0.25704520089284288</v>
+        <v>0.25168805803569289</v>
       </c>
       <c r="H101" s="3">
         <f t="shared" si="26"/>
-        <v>0.25824637276720575</v>
+        <v>0.2148451450892635</v>
       </c>
       <c r="I101" s="3">
         <f t="shared" si="27"/>
-        <v>0.27054966517743995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="J101" s="3">
         <f t="shared" si="28"/>
-        <v>0.25154854910748603</v>
+        <v>2.6646205357178987E-2</v>
       </c>
     </row>
     <row r="102" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G102">
-        <v>0.25154854910748603</v>
+        <v>0.25846819196463805</v>
       </c>
       <c r="H102" s="3">
         <f t="shared" si="26"/>
-        <v>0.25837983630880162</v>
+        <v>0.21075148809521577</v>
       </c>
       <c r="I102" s="3">
         <f t="shared" si="27"/>
-        <v>0.27054966517743995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="J102" s="3">
         <f t="shared" si="28"/>
-        <v>0.25154854910748603</v>
+        <v>2.6646205357178987E-2</v>
       </c>
     </row>
     <row r="103" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G103">
-        <v>0.2532784598217741</v>
+        <v>2.6646205357178987E-2</v>
       </c>
       <c r="H103" s="3">
         <f t="shared" si="26"/>
-        <v>0.25923374720896608</v>
+        <v>0.20478690011153797</v>
       </c>
       <c r="I103" s="3">
         <f t="shared" si="27"/>
-        <v>0.27054966517743995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="J103" s="3">
         <f t="shared" si="28"/>
-        <v>0.25220424107176997</v>
+        <v>2.6646205357178987E-2</v>
       </c>
     </row>
     <row r="104" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G104">
-        <v>0.26347656250035412</v>
+        <v>0.25690569196463597</v>
       </c>
       <c r="H104" s="3">
         <f t="shared" si="26"/>
-        <v>0.26008450254999349</v>
+        <v>0.23023557079073212</v>
       </c>
       <c r="I104" s="3">
         <f t="shared" si="27"/>
-        <v>0.27054966517743995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="J104" s="3">
         <f t="shared" si="28"/>
-        <v>0.25220424107176997</v>
+        <v>5.5998883928650045E-2</v>
       </c>
     </row>
     <row r="105" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G105">
-        <v>0.25220424107176997</v>
+        <v>0.26023995535748901</v>
       </c>
       <c r="H105" s="3">
         <f t="shared" si="26"/>
-        <v>0.25951915922493335</v>
+        <v>0.22579055059508146</v>
       </c>
       <c r="I105" s="3">
         <f t="shared" si="27"/>
-        <v>0.27054966517743995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="J105" s="3">
         <f t="shared" si="28"/>
-        <v>0.25220424107176997</v>
+        <v>5.5998883928650045E-2</v>
       </c>
     </row>
     <row r="106" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G106">
-        <v>0.25521763392892005</v>
+        <v>0.25968191964320986</v>
       </c>
       <c r="H106" s="3">
         <f t="shared" si="26"/>
-        <v>0.26098214285556603</v>
+        <v>0.21890066964259997</v>
       </c>
       <c r="I106" s="3">
         <f t="shared" si="27"/>
-        <v>0.27054966517743995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="J106" s="3">
         <f t="shared" si="28"/>
-        <v>0.25521763392892005</v>
+        <v>5.5998883928650045E-2</v>
       </c>
     </row>
     <row r="107" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G107">
-        <v>0.26526227678607994</v>
+        <v>0.26135602678606995</v>
       </c>
       <c r="H107" s="3">
         <f t="shared" si="26"/>
-        <v>0.26242327008722754</v>
+        <v>0.20870535714244748</v>
       </c>
       <c r="I107" s="3">
         <f t="shared" si="27"/>
-        <v>0.27054966517743995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="J107" s="3">
         <f t="shared" si="28"/>
-        <v>0.25612444196055995</v>
+        <v>5.5998883928650045E-2</v>
       </c>
     </row>
     <row r="108" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G108">
-        <v>0.27054966517743995</v>
+        <v>5.5998883928650045E-2</v>
       </c>
       <c r="H108" s="3">
         <f t="shared" si="26"/>
-        <v>0.26147693452094339</v>
+        <v>0.19115513392790665</v>
       </c>
       <c r="I108" s="3">
         <f t="shared" si="27"/>
-        <v>0.27054966517743995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="J108" s="3">
         <f t="shared" si="28"/>
-        <v>0.25612444196055995</v>
+        <v>5.5998883928650045E-2</v>
       </c>
     </row>
     <row r="109" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G109">
-        <v>0.25775669642483034</v>
+        <v>0.25577566964320009</v>
       </c>
       <c r="H109" s="3">
         <f t="shared" si="26"/>
-        <v>0.25694056919269515</v>
+        <v>0.25873325892753496</v>
       </c>
       <c r="I109" s="3">
         <f t="shared" si="27"/>
-        <v>0.25775669642483034</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="J109" s="3">
         <f t="shared" si="28"/>
-        <v>0.25612444196055995</v>
+        <v>0.25577566964320009</v>
       </c>
     </row>
     <row r="110" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G110">
-        <v>0.25612444196055995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="H110" s="3">
         <f t="shared" si="26"/>
-        <v>0.25612444196055995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="I110" s="3">
         <f t="shared" si="27"/>
-        <v>0.25612444196055995</v>
+        <v>0.26169084821186983</v>
       </c>
       <c r="J110" s="3">
         <f t="shared" si="28"/>
-        <v>0.25612444196055995</v>
+        <v>0.26169084821186983</v>
       </c>
     </row>
   </sheetData>
@@ -13702,10 +13702,10 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="1">
-        <v>0.243032</v>
+        <v>0.24276500000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>8422</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -13713,10 +13713,10 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.22517300000000001</v>
+        <v>0.244586</v>
       </c>
       <c r="C3" s="1">
-        <v>8180</v>
+        <v>8369</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -13724,10 +13724,10 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>0.24671899999999999</v>
+        <v>0.245502</v>
       </c>
       <c r="C4" s="1">
-        <v>8296</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -13735,10 +13735,10 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.22525400000000001</v>
+        <v>0.22579399999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>8177</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -13746,10 +13746,10 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.24590300000000001</v>
+        <v>0.24562500000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>8324</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -13757,10 +13757,10 @@
         <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>0.22240399999999999</v>
+        <v>0.247337</v>
       </c>
       <c r="C7" s="1">
-        <v>8282</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -13768,10 +13768,10 @@
         <v>0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>0.24681400000000001</v>
+        <v>0.248832</v>
       </c>
       <c r="C8" s="1">
-        <v>8293</v>
+        <v>8226</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -13779,10 +13779,10 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.24771299999999999</v>
+        <v>0.22617300000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>8263</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -13790,10 +13790,10 @@
         <v>0.45</v>
       </c>
       <c r="B10" s="1">
-        <v>0.20843100000000001</v>
+        <v>0.228599</v>
       </c>
       <c r="C10" s="1">
-        <v>7853</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -13801,10 +13801,10 @@
         <v>0.49</v>
       </c>
       <c r="B11" s="1">
-        <v>0.25824599999999998</v>
+        <v>0.21484500000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>7926</v>
+        <v>7619</v>
       </c>
     </row>
   </sheetData>
